--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 3-B.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 3-B.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>BA7 replicate 1</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>GMI1000 replicate 3</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 1</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 2</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 3</t>
   </si>
   <si>
     <t>K60 replicate 3</t>
@@ -759,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,7 +758,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,19 +858,10 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -978,19 +960,10 @@
       <c r="AH2" t="n">
         <v>0</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>7418.5</v>
@@ -1027,81 +1000,72 @@
         <v>7239.625</v>
       </c>
       <c r="N3" t="n">
-        <v>10702.625</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
-        <v>10934.125</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>11955.5</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.75</v>
+        <v>7335.75</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>7124.25</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>6585.875</v>
       </c>
       <c r="T3" t="n">
-        <v>7335.75</v>
+        <v>4439.75</v>
       </c>
       <c r="U3" t="n">
-        <v>7124.25</v>
+        <v>4423.625</v>
       </c>
       <c r="V3" t="n">
-        <v>6585.875</v>
+        <v>3498.625</v>
       </c>
       <c r="W3" t="n">
-        <v>4439.75</v>
+        <v>8332.875</v>
       </c>
       <c r="X3" t="n">
-        <v>4423.625</v>
+        <v>7341.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>3498.625</v>
+        <v>7898.625</v>
       </c>
       <c r="Z3" t="n">
-        <v>8332.875</v>
+        <v>10887.375</v>
       </c>
       <c r="AA3" t="n">
-        <v>7341.75</v>
+        <v>10841.125</v>
       </c>
       <c r="AB3" t="n">
-        <v>7898.625</v>
+        <v>10490.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>10887.375</v>
+        <v>8386.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>10841.125</v>
+        <v>8944.875</v>
       </c>
       <c r="AE3" t="n">
-        <v>10490.75</v>
+        <v>8181.375</v>
       </c>
       <c r="AF3" t="n">
-        <v>8386.75</v>
+        <v>8051.875</v>
       </c>
       <c r="AG3" t="n">
-        <v>8944.875</v>
+        <v>8345.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>8181.375</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8051.875</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8345.125</v>
-      </c>
-      <c r="AK3" t="n">
         <v>7466.625</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>4986.125</v>
@@ -1138,81 +1102,72 @@
         <v>3951.875</v>
       </c>
       <c r="N4" t="n">
-        <v>9872.375</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9281.875</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10316.75</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2312.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2669.5</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2773.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2312.5</v>
+        <v>3158.125</v>
       </c>
       <c r="U4" t="n">
-        <v>2669.5</v>
+        <v>2935.625</v>
       </c>
       <c r="V4" t="n">
-        <v>2773.25</v>
+        <v>2341.875</v>
       </c>
       <c r="W4" t="n">
-        <v>3158.125</v>
+        <v>4541.375</v>
       </c>
       <c r="X4" t="n">
-        <v>2935.625</v>
+        <v>3633.125</v>
       </c>
       <c r="Y4" t="n">
-        <v>2341.875</v>
+        <v>4632.375</v>
       </c>
       <c r="Z4" t="n">
-        <v>4541.375</v>
+        <v>10752.125</v>
       </c>
       <c r="AA4" t="n">
-        <v>3633.125</v>
+        <v>10914.375</v>
       </c>
       <c r="AB4" t="n">
-        <v>4632.375</v>
+        <v>10569.25</v>
       </c>
       <c r="AC4" t="n">
-        <v>10752.125</v>
+        <v>6384.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>10914.375</v>
+        <v>5936.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>10569.25</v>
+        <v>6342.375</v>
       </c>
       <c r="AF4" t="n">
-        <v>6384.75</v>
+        <v>6243.375</v>
       </c>
       <c r="AG4" t="n">
-        <v>5936.75</v>
+        <v>6573.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>6342.375</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6243.375</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6573.625</v>
-      </c>
-      <c r="AK4" t="n">
         <v>5877.875</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>6394.25</v>
@@ -1249,81 +1204,72 @@
         <v>4904.75</v>
       </c>
       <c r="N5" t="n">
-        <v>10421.375</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>10286.125</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>11828.875</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4626.375</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5129</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4520</v>
       </c>
       <c r="T5" t="n">
-        <v>4626.375</v>
+        <v>2747.875</v>
       </c>
       <c r="U5" t="n">
-        <v>5129</v>
+        <v>2629.75</v>
       </c>
       <c r="V5" t="n">
-        <v>4520</v>
+        <v>2613.75</v>
       </c>
       <c r="W5" t="n">
-        <v>2747.875</v>
+        <v>6801.75</v>
       </c>
       <c r="X5" t="n">
-        <v>2629.75</v>
+        <v>5523.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>2613.75</v>
+        <v>6276</v>
       </c>
       <c r="Z5" t="n">
-        <v>6801.75</v>
+        <v>12174.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>5523.25</v>
+        <v>12280.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>6276</v>
+        <v>12082.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>12174.25</v>
+        <v>6174.625</v>
       </c>
       <c r="AD5" t="n">
-        <v>12280.5</v>
+        <v>7121.625</v>
       </c>
       <c r="AE5" t="n">
-        <v>12082.5</v>
+        <v>7331.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>6174.625</v>
+        <v>7333.625</v>
       </c>
       <c r="AG5" t="n">
-        <v>7121.625</v>
+        <v>7583.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>7331.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7333.625</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7583.625</v>
-      </c>
-      <c r="AK5" t="n">
         <v>6722.125</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>7880.25</v>
@@ -1360,13 +1306,13 @@
         <v>7093.875</v>
       </c>
       <c r="N6" t="n">
-        <v>9118.75</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8336.5</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>8871.25</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1378,63 +1324,54 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>5147.25</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>5393.75</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>5468.625</v>
       </c>
       <c r="W6" t="n">
-        <v>5147.25</v>
+        <v>8496.875</v>
       </c>
       <c r="X6" t="n">
-        <v>5393.75</v>
+        <v>7658.375</v>
       </c>
       <c r="Y6" t="n">
-        <v>5468.625</v>
+        <v>8341.375</v>
       </c>
       <c r="Z6" t="n">
-        <v>8496.875</v>
+        <v>12838.875</v>
       </c>
       <c r="AA6" t="n">
-        <v>7658.375</v>
+        <v>13188</v>
       </c>
       <c r="AB6" t="n">
-        <v>8341.375</v>
+        <v>12380.125</v>
       </c>
       <c r="AC6" t="n">
-        <v>12838.875</v>
+        <v>9622.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>13188</v>
+        <v>9966.625</v>
       </c>
       <c r="AE6" t="n">
-        <v>12380.125</v>
+        <v>9774</v>
       </c>
       <c r="AF6" t="n">
-        <v>9622.75</v>
+        <v>7553.375</v>
       </c>
       <c r="AG6" t="n">
-        <v>9966.625</v>
+        <v>7980.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>9774</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7553.375</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7980.25</v>
-      </c>
-      <c r="AK6" t="n">
         <v>7042.625</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1498,28 +1435,28 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.25</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>25.375</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>108.25</v>
+        <v>123.125</v>
       </c>
       <c r="AA7" t="n">
-        <v>25.375</v>
+        <v>15.375</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.125</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.375</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1533,19 +1470,10 @@
       <c r="AH7" t="n">
         <v>0</v>
       </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>10380.5</v>
@@ -1582,81 +1510,72 @@
         <v>8369.875</v>
       </c>
       <c r="N8" t="n">
-        <v>12092.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>10919.375</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13135</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9853.125</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>9053.5</v>
       </c>
       <c r="T8" t="n">
-        <v>9853.125</v>
+        <v>7247.375</v>
       </c>
       <c r="U8" t="n">
-        <v>9118</v>
+        <v>7352</v>
       </c>
       <c r="V8" t="n">
-        <v>9053.5</v>
+        <v>7730.375</v>
       </c>
       <c r="W8" t="n">
-        <v>7247.375</v>
+        <v>10071</v>
       </c>
       <c r="X8" t="n">
-        <v>7352</v>
+        <v>8816.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>7730.375</v>
+        <v>10334</v>
       </c>
       <c r="Z8" t="n">
-        <v>10071</v>
+        <v>11144.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>8816.25</v>
+        <v>11720.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>10334</v>
+        <v>10397.125</v>
       </c>
       <c r="AC8" t="n">
-        <v>11144.5</v>
+        <v>10138.125</v>
       </c>
       <c r="AD8" t="n">
-        <v>11720.5</v>
+        <v>9917.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>10397.125</v>
+        <v>9501.875</v>
       </c>
       <c r="AF8" t="n">
-        <v>10138.125</v>
+        <v>8067.375</v>
       </c>
       <c r="AG8" t="n">
-        <v>9917.5</v>
+        <v>8487.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>9501.875</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8067.375</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8487.375</v>
-      </c>
-      <c r="AK8" t="n">
         <v>7985.625</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>2459.125</v>
@@ -1693,81 +1612,72 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>29.75</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>114.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.375</v>
+        <v>371.625</v>
       </c>
       <c r="R9" t="n">
-        <v>29.75</v>
+        <v>443.5</v>
       </c>
       <c r="S9" t="n">
-        <v>114.5</v>
+        <v>194.5</v>
       </c>
       <c r="T9" t="n">
-        <v>371.625</v>
+        <v>21.5</v>
       </c>
       <c r="U9" t="n">
-        <v>443.5</v>
+        <v>5.25</v>
       </c>
       <c r="V9" t="n">
-        <v>194.5</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>21.5</v>
+        <v>283.25</v>
       </c>
       <c r="X9" t="n">
-        <v>5.25</v>
+        <v>223.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>544.375</v>
       </c>
       <c r="Z9" t="n">
-        <v>283.25</v>
+        <v>1222</v>
       </c>
       <c r="AA9" t="n">
-        <v>223.5</v>
+        <v>1518.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>544.375</v>
+        <v>569.625</v>
       </c>
       <c r="AC9" t="n">
-        <v>1222</v>
+        <v>4000.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>1518.25</v>
+        <v>4176.125</v>
       </c>
       <c r="AE9" t="n">
-        <v>569.625</v>
+        <v>2653.875</v>
       </c>
       <c r="AF9" t="n">
-        <v>4000.25</v>
+        <v>974.125</v>
       </c>
       <c r="AG9" t="n">
-        <v>4176.125</v>
+        <v>1206</v>
       </c>
       <c r="AH9" t="n">
-        <v>2653.875</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>974.125</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1206</v>
-      </c>
-      <c r="AK9" t="n">
         <v>215.125</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>10981.375</v>
@@ -1804,81 +1714,72 @@
         <v>8914.625</v>
       </c>
       <c r="N10" t="n">
-        <v>13731.75</v>
+        <v>11290.5</v>
       </c>
       <c r="O10" t="n">
-        <v>12304.375</v>
+        <v>9949.875</v>
       </c>
       <c r="P10" t="n">
-        <v>14615.875</v>
+        <v>11803.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>11290.5</v>
+        <v>11325.25</v>
       </c>
       <c r="R10" t="n">
-        <v>9949.875</v>
+        <v>10982.25</v>
       </c>
       <c r="S10" t="n">
-        <v>11803.5</v>
+        <v>11297</v>
       </c>
       <c r="T10" t="n">
-        <v>11325.25</v>
+        <v>8680.25</v>
       </c>
       <c r="U10" t="n">
-        <v>10982.25</v>
+        <v>8734.125</v>
       </c>
       <c r="V10" t="n">
-        <v>11297</v>
+        <v>9027.125</v>
       </c>
       <c r="W10" t="n">
-        <v>8680.25</v>
+        <v>10601.875</v>
       </c>
       <c r="X10" t="n">
-        <v>8734.125</v>
+        <v>9106</v>
       </c>
       <c r="Y10" t="n">
-        <v>9027.125</v>
+        <v>11151.375</v>
       </c>
       <c r="Z10" t="n">
-        <v>10601.875</v>
+        <v>12510.625</v>
       </c>
       <c r="AA10" t="n">
-        <v>9106</v>
+        <v>13023.375</v>
       </c>
       <c r="AB10" t="n">
-        <v>11151.375</v>
+        <v>11928.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>12510.625</v>
+        <v>9377.625</v>
       </c>
       <c r="AD10" t="n">
-        <v>13023.375</v>
+        <v>10944.375</v>
       </c>
       <c r="AE10" t="n">
-        <v>11928.5</v>
+        <v>9419.625</v>
       </c>
       <c r="AF10" t="n">
-        <v>9377.625</v>
+        <v>10441.375</v>
       </c>
       <c r="AG10" t="n">
-        <v>10944.375</v>
+        <v>11226.125</v>
       </c>
       <c r="AH10" t="n">
-        <v>9419.625</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10441.375</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11226.125</v>
-      </c>
-      <c r="AK10" t="n">
         <v>10091.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>10262.375</v>
@@ -1915,81 +1816,72 @@
         <v>10053.75</v>
       </c>
       <c r="N11" t="n">
-        <v>13492.875</v>
+        <v>11248.75</v>
       </c>
       <c r="O11" t="n">
-        <v>12973.875</v>
+        <v>11024.875</v>
       </c>
       <c r="P11" t="n">
-        <v>14590</v>
+        <v>11511.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>11248.75</v>
+        <v>11010.375</v>
       </c>
       <c r="R11" t="n">
-        <v>11024.875</v>
+        <v>10847.625</v>
       </c>
       <c r="S11" t="n">
-        <v>11511.5</v>
+        <v>11068.125</v>
       </c>
       <c r="T11" t="n">
-        <v>11010.375</v>
+        <v>9270.5</v>
       </c>
       <c r="U11" t="n">
-        <v>10847.625</v>
+        <v>8679.875</v>
       </c>
       <c r="V11" t="n">
-        <v>11068.125</v>
+        <v>9160.125</v>
       </c>
       <c r="W11" t="n">
-        <v>9270.5</v>
+        <v>11482.125</v>
       </c>
       <c r="X11" t="n">
-        <v>8679.875</v>
+        <v>11258.375</v>
       </c>
       <c r="Y11" t="n">
-        <v>9160.125</v>
+        <v>11854.625</v>
       </c>
       <c r="Z11" t="n">
-        <v>11482.125</v>
+        <v>12661.875</v>
       </c>
       <c r="AA11" t="n">
-        <v>11258.375</v>
+        <v>12453</v>
       </c>
       <c r="AB11" t="n">
-        <v>11854.625</v>
+        <v>12475.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12661.875</v>
+        <v>9425.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>12453</v>
+        <v>9407.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12475.5</v>
+        <v>9554.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>9425.25</v>
+        <v>11018.875</v>
       </c>
       <c r="AG11" t="n">
-        <v>9407.5</v>
+        <v>11318.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>9554.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11018.875</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11318.375</v>
-      </c>
-      <c r="AK11" t="n">
         <v>10046</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
         <v>200.625</v>
@@ -2026,81 +1918,72 @@
         <v>2882.5</v>
       </c>
       <c r="N12" t="n">
-        <v>12934.125</v>
+        <v>57.625</v>
       </c>
       <c r="O12" t="n">
-        <v>12901.75</v>
+        <v>363</v>
       </c>
       <c r="P12" t="n">
-        <v>14413.625</v>
+        <v>92.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.625</v>
+        <v>2367.25</v>
       </c>
       <c r="R12" t="n">
-        <v>363</v>
+        <v>2331.5</v>
       </c>
       <c r="S12" t="n">
-        <v>92.75</v>
+        <v>2351.875</v>
       </c>
       <c r="T12" t="n">
-        <v>2367.25</v>
+        <v>1543.375</v>
       </c>
       <c r="U12" t="n">
-        <v>2331.5</v>
+        <v>1095.375</v>
       </c>
       <c r="V12" t="n">
-        <v>2351.875</v>
+        <v>646.125</v>
       </c>
       <c r="W12" t="n">
-        <v>1543.375</v>
+        <v>3050.875</v>
       </c>
       <c r="X12" t="n">
-        <v>1095.375</v>
+        <v>2452</v>
       </c>
       <c r="Y12" t="n">
-        <v>646.125</v>
+        <v>2015.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>3050.875</v>
+        <v>11290.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2452</v>
+        <v>10419.125</v>
       </c>
       <c r="AB12" t="n">
-        <v>2015.25</v>
+        <v>9581.625</v>
       </c>
       <c r="AC12" t="n">
-        <v>11290.75</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>10419.125</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>9581.625</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>6259.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>5111.375</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>6259.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>5111.375</v>
-      </c>
-      <c r="AK12" t="n">
         <v>4449.875</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
         <v>11952.5</v>
@@ -2137,81 +2020,72 @@
         <v>10438</v>
       </c>
       <c r="N13" t="n">
-        <v>14100.125</v>
+        <v>10565.375</v>
       </c>
       <c r="O13" t="n">
-        <v>13165.75</v>
+        <v>11217.625</v>
       </c>
       <c r="P13" t="n">
-        <v>14387.75</v>
+        <v>12007.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>10565.375</v>
+        <v>12152.5</v>
       </c>
       <c r="R13" t="n">
-        <v>11217.625</v>
+        <v>12243</v>
       </c>
       <c r="S13" t="n">
-        <v>12007.75</v>
+        <v>12478.125</v>
       </c>
       <c r="T13" t="n">
-        <v>12152.5</v>
+        <v>9656.25</v>
       </c>
       <c r="U13" t="n">
-        <v>12243</v>
+        <v>8718.75</v>
       </c>
       <c r="V13" t="n">
-        <v>12478.125</v>
+        <v>9527.625</v>
       </c>
       <c r="W13" t="n">
-        <v>9656.25</v>
+        <v>11981.625</v>
       </c>
       <c r="X13" t="n">
-        <v>8718.75</v>
+        <v>11820.375</v>
       </c>
       <c r="Y13" t="n">
-        <v>9527.625</v>
+        <v>12611.625</v>
       </c>
       <c r="Z13" t="n">
-        <v>11981.625</v>
+        <v>13351.125</v>
       </c>
       <c r="AA13" t="n">
-        <v>11820.375</v>
+        <v>13120.375</v>
       </c>
       <c r="AB13" t="n">
-        <v>12611.625</v>
+        <v>12651.875</v>
       </c>
       <c r="AC13" t="n">
-        <v>13351.125</v>
+        <v>9692.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>13120.375</v>
+        <v>9670.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12651.875</v>
+        <v>9101.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>9692.25</v>
+        <v>11220.75</v>
       </c>
       <c r="AG13" t="n">
-        <v>9670.5</v>
+        <v>11334.125</v>
       </c>
       <c r="AH13" t="n">
-        <v>9101.75</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11220.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11334.125</v>
-      </c>
-      <c r="AK13" t="n">
         <v>10699.375</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
         <v>11872.125</v>
@@ -2248,81 +2122,72 @@
         <v>10386</v>
       </c>
       <c r="N14" t="n">
-        <v>14245.125</v>
+        <v>10668.5</v>
       </c>
       <c r="O14" t="n">
-        <v>12603.875</v>
+        <v>10386.375</v>
       </c>
       <c r="P14" t="n">
-        <v>15239.125</v>
+        <v>11462.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>10668.5</v>
+        <v>12845.625</v>
       </c>
       <c r="R14" t="n">
-        <v>10386.375</v>
+        <v>11282.625</v>
       </c>
       <c r="S14" t="n">
-        <v>11462.25</v>
+        <v>12574.875</v>
       </c>
       <c r="T14" t="n">
-        <v>12845.625</v>
+        <v>8791.75</v>
       </c>
       <c r="U14" t="n">
-        <v>11282.625</v>
+        <v>9094.75</v>
       </c>
       <c r="V14" t="n">
-        <v>12574.875</v>
+        <v>9637.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8791.75</v>
+        <v>12587.125</v>
       </c>
       <c r="X14" t="n">
-        <v>9094.75</v>
+        <v>10787.625</v>
       </c>
       <c r="Y14" t="n">
-        <v>9637.5</v>
+        <v>12786.875</v>
       </c>
       <c r="Z14" t="n">
-        <v>12587.125</v>
+        <v>11645.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>10787.625</v>
+        <v>13789.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>12786.875</v>
+        <v>11294.375</v>
       </c>
       <c r="AC14" t="n">
-        <v>11645.75</v>
+        <v>9875.125</v>
       </c>
       <c r="AD14" t="n">
-        <v>13789.75</v>
+        <v>8012.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>11294.375</v>
+        <v>9525.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>9875.125</v>
+        <v>10514.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>8012.75</v>
+        <v>11483</v>
       </c>
       <c r="AH14" t="n">
-        <v>9525.25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10514.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11483</v>
-      </c>
-      <c r="AK14" t="n">
         <v>10714.75</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
         <v>5609.375</v>
@@ -2359,81 +2224,72 @@
         <v>2618.25</v>
       </c>
       <c r="N15" t="n">
-        <v>11114.75</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>10472.375</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12249.625</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>4078.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4171.375</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3634.875</v>
       </c>
       <c r="T15" t="n">
-        <v>4078.25</v>
+        <v>1996.25</v>
       </c>
       <c r="U15" t="n">
-        <v>4171.375</v>
+        <v>2350.875</v>
       </c>
       <c r="V15" t="n">
-        <v>3634.875</v>
+        <v>1546.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1996.25</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2350.875</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1546.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>10841.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>10925.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>10433.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10841.75</v>
+        <v>800.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>10925.25</v>
+        <v>1396.375</v>
       </c>
       <c r="AE15" t="n">
-        <v>10433.5</v>
+        <v>779.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>800.75</v>
+        <v>5758</v>
       </c>
       <c r="AG15" t="n">
-        <v>1396.375</v>
+        <v>6114.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>779.75</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>5758</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6114.25</v>
-      </c>
-      <c r="AK15" t="n">
         <v>5267.625</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="n">
         <v>9060.25</v>
@@ -2470,81 +2326,72 @@
         <v>8419.75</v>
       </c>
       <c r="N16" t="n">
-        <v>9922.375</v>
+        <v>8631.375</v>
       </c>
       <c r="O16" t="n">
-        <v>8455.875</v>
+        <v>7183.375</v>
       </c>
       <c r="P16" t="n">
-        <v>9917.875</v>
+        <v>8537</v>
       </c>
       <c r="Q16" t="n">
-        <v>8631.375</v>
+        <v>10556.75</v>
       </c>
       <c r="R16" t="n">
-        <v>7183.375</v>
+        <v>9348.5</v>
       </c>
       <c r="S16" t="n">
-        <v>8537</v>
+        <v>9913.75</v>
       </c>
       <c r="T16" t="n">
-        <v>10556.75</v>
+        <v>5865.125</v>
       </c>
       <c r="U16" t="n">
-        <v>9348.5</v>
+        <v>6288.375</v>
       </c>
       <c r="V16" t="n">
-        <v>9913.75</v>
+        <v>6501.75</v>
       </c>
       <c r="W16" t="n">
-        <v>5865.125</v>
+        <v>11529.75</v>
       </c>
       <c r="X16" t="n">
-        <v>6288.375</v>
+        <v>10241.875</v>
       </c>
       <c r="Y16" t="n">
-        <v>6501.75</v>
+        <v>11091.125</v>
       </c>
       <c r="Z16" t="n">
-        <v>11529.75</v>
+        <v>10843.625</v>
       </c>
       <c r="AA16" t="n">
-        <v>10241.875</v>
+        <v>11579.875</v>
       </c>
       <c r="AB16" t="n">
-        <v>11091.125</v>
+        <v>10626.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>10843.625</v>
+        <v>10465.625</v>
       </c>
       <c r="AD16" t="n">
-        <v>11579.875</v>
+        <v>9617.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>10626.5</v>
+        <v>9624.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>10465.625</v>
+        <v>7504.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9617.25</v>
+        <v>7368.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>9624.75</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7504.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7368.5</v>
-      </c>
-      <c r="AK16" t="n">
         <v>6832.25</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
         <v>1338.5</v>
@@ -2590,72 +2437,63 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>136.75</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>121.875</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>53.25</v>
       </c>
       <c r="T17" t="n">
-        <v>136.75</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>121.875</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>53.25</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>142.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>55.5</v>
+        <v>8712.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>32.5</v>
+        <v>8338.125</v>
       </c>
       <c r="AB17" t="n">
-        <v>142.75</v>
+        <v>8046.625</v>
       </c>
       <c r="AC17" t="n">
-        <v>8712.5</v>
+        <v>93.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>8338.125</v>
+        <v>18.375</v>
       </c>
       <c r="AE17" t="n">
-        <v>8046.625</v>
+        <v>259.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>93.75</v>
+        <v>130.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.375</v>
+        <v>306.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>259.25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>306.75</v>
-      </c>
-      <c r="AK17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
         <v>325.875</v>
@@ -2701,49 +2539,49 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.375</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>77.875</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>166.125</v>
       </c>
       <c r="Z18" t="n">
-        <v>227.375</v>
+        <v>7386.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>77.875</v>
+        <v>7441.875</v>
       </c>
       <c r="AB18" t="n">
-        <v>166.125</v>
+        <v>6965.375</v>
       </c>
       <c r="AC18" t="n">
-        <v>7386.25</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>7441.875</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>6965.375</v>
+        <v>14.75</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -2752,21 +2590,12 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2863,21 +2692,12 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
         <v>3.25</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:34">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2976,19 +2796,10 @@
       <c r="AH20" t="n">
         <v>0</v>
       </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:34">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
         <v>6188.5</v>
@@ -3025,81 +2836,72 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>127.375</v>
+        <v>66.125</v>
       </c>
       <c r="O21" t="n">
-        <v>139.25</v>
+        <v>26.375</v>
       </c>
       <c r="P21" t="n">
-        <v>0.25</v>
+        <v>468.875</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.125</v>
+        <v>2857.75</v>
       </c>
       <c r="R21" t="n">
-        <v>26.375</v>
+        <v>2338.375</v>
       </c>
       <c r="S21" t="n">
-        <v>468.875</v>
+        <v>2618.375</v>
       </c>
       <c r="T21" t="n">
-        <v>2857.75</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2338.375</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2618.375</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>121.875</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>213.375</v>
       </c>
       <c r="Z21" t="n">
-        <v>121.875</v>
+        <v>6117.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>6083.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>213.375</v>
+        <v>6390.875</v>
       </c>
       <c r="AC21" t="n">
-        <v>6117.25</v>
+        <v>4414.125</v>
       </c>
       <c r="AD21" t="n">
-        <v>6083.75</v>
+        <v>3925.625</v>
       </c>
       <c r="AE21" t="n">
-        <v>6390.875</v>
+        <v>3502.375</v>
       </c>
       <c r="AF21" t="n">
-        <v>4414.125</v>
+        <v>1664.25</v>
       </c>
       <c r="AG21" t="n">
-        <v>3925.625</v>
+        <v>1755.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>3502.375</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1664.25</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1755.5</v>
-      </c>
-      <c r="AK21" t="n">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="n">
         <v>9024.25</v>
@@ -3136,81 +2938,72 @@
         <v>176.125</v>
       </c>
       <c r="N22" t="n">
-        <v>6205.5</v>
+        <v>7878.625</v>
       </c>
       <c r="O22" t="n">
-        <v>6771.625</v>
+        <v>6926.125</v>
       </c>
       <c r="P22" t="n">
-        <v>5823.625</v>
+        <v>8959.625</v>
       </c>
       <c r="Q22" t="n">
-        <v>7878.625</v>
+        <v>7021.75</v>
       </c>
       <c r="R22" t="n">
-        <v>6926.125</v>
+        <v>6476.375</v>
       </c>
       <c r="S22" t="n">
-        <v>8959.625</v>
+        <v>6189.875</v>
       </c>
       <c r="T22" t="n">
-        <v>7021.75</v>
+        <v>1555.25</v>
       </c>
       <c r="U22" t="n">
-        <v>6476.375</v>
+        <v>1527.875</v>
       </c>
       <c r="V22" t="n">
-        <v>6189.875</v>
+        <v>1793.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1555.25</v>
+        <v>2370.625</v>
       </c>
       <c r="X22" t="n">
-        <v>1527.875</v>
+        <v>2123.375</v>
       </c>
       <c r="Y22" t="n">
-        <v>1793.25</v>
+        <v>3123.875</v>
       </c>
       <c r="Z22" t="n">
-        <v>2370.625</v>
+        <v>12142.625</v>
       </c>
       <c r="AA22" t="n">
-        <v>2123.375</v>
+        <v>12224.875</v>
       </c>
       <c r="AB22" t="n">
-        <v>3123.875</v>
+        <v>11781.625</v>
       </c>
       <c r="AC22" t="n">
-        <v>12142.625</v>
+        <v>8530.875</v>
       </c>
       <c r="AD22" t="n">
-        <v>12224.875</v>
+        <v>8262.375</v>
       </c>
       <c r="AE22" t="n">
-        <v>11781.625</v>
+        <v>8717.625</v>
       </c>
       <c r="AF22" t="n">
-        <v>8530.875</v>
+        <v>7501.125</v>
       </c>
       <c r="AG22" t="n">
-        <v>8262.375</v>
+        <v>7767.125</v>
       </c>
       <c r="AH22" t="n">
-        <v>8717.625</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>7501.125</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>7767.125</v>
-      </c>
-      <c r="AK22" t="n">
         <v>6594.875</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:34">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="n">
         <v>4171.375</v>
@@ -3247,81 +3040,72 @@
         <v>2552.625</v>
       </c>
       <c r="N23" t="n">
-        <v>10560.25</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9339.375</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>12012.5</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3395.625</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3543.25</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2965.125</v>
       </c>
       <c r="T23" t="n">
-        <v>3395.625</v>
+        <v>2433.875</v>
       </c>
       <c r="U23" t="n">
-        <v>3543.25</v>
+        <v>3022.125</v>
       </c>
       <c r="V23" t="n">
-        <v>2965.125</v>
+        <v>3065.125</v>
       </c>
       <c r="W23" t="n">
-        <v>2433.875</v>
+        <v>1923.75</v>
       </c>
       <c r="X23" t="n">
-        <v>3022.125</v>
+        <v>818.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.125</v>
+        <v>2538.625</v>
       </c>
       <c r="Z23" t="n">
-        <v>1923.75</v>
+        <v>10642.625</v>
       </c>
       <c r="AA23" t="n">
-        <v>818.75</v>
+        <v>10866.375</v>
       </c>
       <c r="AB23" t="n">
-        <v>2538.625</v>
+        <v>10731.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10642.625</v>
+        <v>2425.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10866.375</v>
+        <v>2257.875</v>
       </c>
       <c r="AE23" t="n">
-        <v>10731.5</v>
+        <v>2315.875</v>
       </c>
       <c r="AF23" t="n">
-        <v>2425.5</v>
+        <v>5235.375</v>
       </c>
       <c r="AG23" t="n">
-        <v>2257.875</v>
+        <v>4955.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>2315.875</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>5235.375</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>4955.5</v>
-      </c>
-      <c r="AK23" t="n">
         <v>4388.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n">
         <v>7992.875</v>
@@ -3358,81 +3142,72 @@
         <v>1322</v>
       </c>
       <c r="N24" t="n">
-        <v>9915.875</v>
+        <v>22</v>
       </c>
       <c r="O24" t="n">
-        <v>9558.125</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>11765</v>
+        <v>139.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>22</v>
+        <v>3750.625</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3877.625</v>
       </c>
       <c r="S24" t="n">
-        <v>139.75</v>
+        <v>3643.375</v>
       </c>
       <c r="T24" t="n">
-        <v>3750.625</v>
+        <v>474.5</v>
       </c>
       <c r="U24" t="n">
-        <v>3877.625</v>
+        <v>676.625</v>
       </c>
       <c r="V24" t="n">
-        <v>3643.375</v>
+        <v>557</v>
       </c>
       <c r="W24" t="n">
-        <v>474.5</v>
+        <v>6695.375</v>
       </c>
       <c r="X24" t="n">
-        <v>676.625</v>
+        <v>6520.625</v>
       </c>
       <c r="Y24" t="n">
-        <v>557</v>
+        <v>6649.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>6695.375</v>
+        <v>9612</v>
       </c>
       <c r="AA24" t="n">
-        <v>6520.625</v>
+        <v>10301</v>
       </c>
       <c r="AB24" t="n">
-        <v>6649.25</v>
+        <v>9156.625</v>
       </c>
       <c r="AC24" t="n">
-        <v>9612</v>
+        <v>7297.625</v>
       </c>
       <c r="AD24" t="n">
-        <v>10301</v>
+        <v>7155</v>
       </c>
       <c r="AE24" t="n">
-        <v>9156.625</v>
+        <v>7355</v>
       </c>
       <c r="AF24" t="n">
-        <v>7297.625</v>
+        <v>5867.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>7155</v>
+        <v>6887.875</v>
       </c>
       <c r="AH24" t="n">
-        <v>7355</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>5867.75</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>6887.875</v>
-      </c>
-      <c r="AK24" t="n">
         <v>6103.5</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:34">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
         <v>6609.25</v>
@@ -3469,81 +3244,72 @@
         <v>347.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>105.875</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>131</v>
       </c>
       <c r="P25" t="n">
-        <v>4.375</v>
+        <v>351.875</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.875</v>
+        <v>5660.25</v>
       </c>
       <c r="R25" t="n">
-        <v>131</v>
+        <v>4634.375</v>
       </c>
       <c r="S25" t="n">
-        <v>351.875</v>
+        <v>5009.875</v>
       </c>
       <c r="T25" t="n">
-        <v>5660.25</v>
+        <v>870.375</v>
       </c>
       <c r="U25" t="n">
-        <v>4634.375</v>
+        <v>454.625</v>
       </c>
       <c r="V25" t="n">
-        <v>5009.875</v>
+        <v>732.5</v>
       </c>
       <c r="W25" t="n">
-        <v>870.375</v>
+        <v>1672.5</v>
       </c>
       <c r="X25" t="n">
-        <v>454.625</v>
+        <v>1220.125</v>
       </c>
       <c r="Y25" t="n">
-        <v>732.5</v>
+        <v>2881.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>1672.5</v>
+        <v>10619.25</v>
       </c>
       <c r="AA25" t="n">
-        <v>1220.125</v>
+        <v>11099.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>2881.75</v>
+        <v>10742.25</v>
       </c>
       <c r="AC25" t="n">
-        <v>10619.25</v>
+        <v>4128.125</v>
       </c>
       <c r="AD25" t="n">
-        <v>11099.75</v>
+        <v>4603.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>10742.25</v>
+        <v>4997.375</v>
       </c>
       <c r="AF25" t="n">
-        <v>4128.125</v>
+        <v>100.75</v>
       </c>
       <c r="AG25" t="n">
-        <v>4603.25</v>
+        <v>15.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>4997.375</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>100.75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AK25" t="n">
         <v>25.125</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:34">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
         <v>9484.625</v>
@@ -3580,81 +3346,72 @@
         <v>563.125</v>
       </c>
       <c r="N26" t="n">
-        <v>9889.25</v>
+        <v>9235.5</v>
       </c>
       <c r="O26" t="n">
-        <v>8827.5</v>
+        <v>8002.125</v>
       </c>
       <c r="P26" t="n">
-        <v>10367.375</v>
+        <v>8445.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>9235.5</v>
+        <v>9974.125</v>
       </c>
       <c r="R26" t="n">
-        <v>8002.125</v>
+        <v>9408.125</v>
       </c>
       <c r="S26" t="n">
-        <v>8445.25</v>
+        <v>9779.875</v>
       </c>
       <c r="T26" t="n">
-        <v>9974.125</v>
+        <v>6159</v>
       </c>
       <c r="U26" t="n">
-        <v>9408.125</v>
+        <v>6885.125</v>
       </c>
       <c r="V26" t="n">
-        <v>9779.875</v>
+        <v>6853</v>
       </c>
       <c r="W26" t="n">
-        <v>6159</v>
+        <v>8581.625</v>
       </c>
       <c r="X26" t="n">
-        <v>6885.125</v>
+        <v>6768.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>6853</v>
+        <v>8524.625</v>
       </c>
       <c r="Z26" t="n">
-        <v>8581.625</v>
+        <v>10427.875</v>
       </c>
       <c r="AA26" t="n">
-        <v>6768.75</v>
+        <v>11452.375</v>
       </c>
       <c r="AB26" t="n">
-        <v>8524.625</v>
+        <v>93.125</v>
       </c>
       <c r="AC26" t="n">
-        <v>10427.875</v>
+        <v>6768.625</v>
       </c>
       <c r="AD26" t="n">
-        <v>11452.375</v>
+        <v>6718.125</v>
       </c>
       <c r="AE26" t="n">
-        <v>93.125</v>
+        <v>8606.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>6768.625</v>
+        <v>6763.75</v>
       </c>
       <c r="AG26" t="n">
-        <v>6718.125</v>
+        <v>9348.625</v>
       </c>
       <c r="AH26" t="n">
-        <v>8606.75</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>6763.75</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9348.625</v>
-      </c>
-      <c r="AK26" t="n">
         <v>6523</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:34">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
         <v>70.375</v>
@@ -3691,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5774.625</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>5543.25</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>6997.125</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3718,54 +3475,45 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2038.875</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1858.625</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2281.375</v>
       </c>
       <c r="Z27" t="n">
-        <v>2038.875</v>
+        <v>7543.25</v>
       </c>
       <c r="AA27" t="n">
-        <v>1858.625</v>
+        <v>8175.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>2281.375</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>7543.25</v>
+        <v>1137.125</v>
       </c>
       <c r="AD27" t="n">
-        <v>8175.25</v>
+        <v>1069.125</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="AF27" t="n">
-        <v>1137.125</v>
+        <v>3453.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>1069.125</v>
+        <v>3203</v>
       </c>
       <c r="AH27" t="n">
-        <v>1567</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>3453.75</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>3203</v>
-      </c>
-      <c r="AK27" t="n">
         <v>2527.75</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:34">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="n">
         <v>9467.5</v>
@@ -3802,81 +3550,72 @@
         <v>3567.125</v>
       </c>
       <c r="N28" t="n">
-        <v>10893.625</v>
+        <v>17.5</v>
       </c>
       <c r="O28" t="n">
-        <v>10321.75</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>12096.125</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.5</v>
+        <v>9743.75</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8503.125</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9118.75</v>
       </c>
       <c r="T28" t="n">
-        <v>9743.75</v>
+        <v>4653.125</v>
       </c>
       <c r="U28" t="n">
-        <v>8503.125</v>
+        <v>5286.125</v>
       </c>
       <c r="V28" t="n">
-        <v>9118.75</v>
+        <v>5375</v>
       </c>
       <c r="W28" t="n">
-        <v>4653.125</v>
+        <v>5860.75</v>
       </c>
       <c r="X28" t="n">
-        <v>5286.125</v>
+        <v>4483.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5375</v>
+        <v>6529.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>5860.75</v>
+        <v>10992.375</v>
       </c>
       <c r="AA28" t="n">
-        <v>4483.5</v>
+        <v>11657.625</v>
       </c>
       <c r="AB28" t="n">
-        <v>6529.25</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>10992.375</v>
+        <v>9045.875</v>
       </c>
       <c r="AD28" t="n">
-        <v>11657.625</v>
+        <v>7946.125</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>8934.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>9045.875</v>
+        <v>8354.75</v>
       </c>
       <c r="AG28" t="n">
-        <v>7946.125</v>
+        <v>8752.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>8934.25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>8354.75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8752.75</v>
-      </c>
-      <c r="AK28" t="n">
         <v>7592.625</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:34">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
         <v>3623.5</v>
@@ -3913,81 +3652,72 @@
         <v>5467.375</v>
       </c>
       <c r="N29" t="n">
-        <v>11013.5</v>
+        <v>6968</v>
       </c>
       <c r="O29" t="n">
-        <v>8932.25</v>
+        <v>6310.125</v>
       </c>
       <c r="P29" t="n">
-        <v>11034.375</v>
+        <v>8188.625</v>
       </c>
       <c r="Q29" t="n">
-        <v>6968</v>
+        <v>3131.625</v>
       </c>
       <c r="R29" t="n">
-        <v>6310.125</v>
+        <v>2645.75</v>
       </c>
       <c r="S29" t="n">
-        <v>8188.625</v>
+        <v>3071.5</v>
       </c>
       <c r="T29" t="n">
-        <v>3131.625</v>
+        <v>3068.125</v>
       </c>
       <c r="U29" t="n">
-        <v>2645.75</v>
+        <v>3317.5</v>
       </c>
       <c r="V29" t="n">
-        <v>3071.5</v>
+        <v>3443.375</v>
       </c>
       <c r="W29" t="n">
-        <v>3068.125</v>
+        <v>180.125</v>
       </c>
       <c r="X29" t="n">
-        <v>3317.5</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>3443.375</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>180.125</v>
+        <v>10482.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>9384</v>
       </c>
       <c r="AB29" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>10482.25</v>
+        <v>4530.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>9384</v>
+        <v>4736</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>4808.625</v>
       </c>
       <c r="AF29" t="n">
-        <v>4530.5</v>
+        <v>6229.25</v>
       </c>
       <c r="AG29" t="n">
-        <v>4736</v>
+        <v>6419.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>4808.625</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6229.25</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>6419.75</v>
-      </c>
-      <c r="AK29" t="n">
         <v>5654.125</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:34">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>8814.25</v>
@@ -4024,81 +3754,72 @@
         <v>7973</v>
       </c>
       <c r="N30" t="n">
-        <v>11582</v>
+        <v>10335.75</v>
       </c>
       <c r="O30" t="n">
-        <v>10177.5</v>
+        <v>9872.25</v>
       </c>
       <c r="P30" t="n">
-        <v>11438.75</v>
+        <v>11624.125</v>
       </c>
       <c r="Q30" t="n">
-        <v>10335.75</v>
+        <v>6843.125</v>
       </c>
       <c r="R30" t="n">
-        <v>9872.25</v>
+        <v>6142.625</v>
       </c>
       <c r="S30" t="n">
-        <v>11624.125</v>
+        <v>5932</v>
       </c>
       <c r="T30" t="n">
-        <v>6843.125</v>
+        <v>4296.375</v>
       </c>
       <c r="U30" t="n">
-        <v>6142.625</v>
+        <v>4169.25</v>
       </c>
       <c r="V30" t="n">
-        <v>5932</v>
+        <v>4170.875</v>
       </c>
       <c r="W30" t="n">
-        <v>4296.375</v>
+        <v>6670</v>
       </c>
       <c r="X30" t="n">
-        <v>4169.25</v>
+        <v>5612</v>
       </c>
       <c r="Y30" t="n">
-        <v>4170.875</v>
+        <v>6114.875</v>
       </c>
       <c r="Z30" t="n">
-        <v>6670</v>
+        <v>12524.875</v>
       </c>
       <c r="AA30" t="n">
-        <v>5612</v>
+        <v>12748.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>6114.875</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>12524.875</v>
+        <v>9201.625</v>
       </c>
       <c r="AD30" t="n">
-        <v>12748.5</v>
+        <v>8128.75</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>10321.375</v>
       </c>
       <c r="AF30" t="n">
-        <v>9201.625</v>
+        <v>8144.125</v>
       </c>
       <c r="AG30" t="n">
-        <v>8128.75</v>
+        <v>8682.375</v>
       </c>
       <c r="AH30" t="n">
-        <v>10321.375</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>8144.125</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8682.375</v>
-      </c>
-      <c r="AK30" t="n">
         <v>7721.25</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:34">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>6215.875</v>
@@ -4135,81 +3856,72 @@
         <v>1007.625</v>
       </c>
       <c r="N31" t="n">
-        <v>2774.5</v>
+        <v>8586.25</v>
       </c>
       <c r="O31" t="n">
-        <v>2060.375</v>
+        <v>8181.375</v>
       </c>
       <c r="P31" t="n">
-        <v>2729.75</v>
+        <v>9528.625</v>
       </c>
       <c r="Q31" t="n">
-        <v>8586.25</v>
+        <v>14.75</v>
       </c>
       <c r="R31" t="n">
-        <v>8181.375</v>
+        <v>15.375</v>
       </c>
       <c r="S31" t="n">
-        <v>9528.625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>14.75</v>
+        <v>1936.125</v>
       </c>
       <c r="U31" t="n">
-        <v>15.375</v>
+        <v>1923.375</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1877.625</v>
       </c>
       <c r="W31" t="n">
-        <v>1936.125</v>
+        <v>1801.125</v>
       </c>
       <c r="X31" t="n">
-        <v>1923.375</v>
+        <v>8.375</v>
       </c>
       <c r="Y31" t="n">
-        <v>1877.625</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1801.125</v>
+        <v>11890.375</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.375</v>
+        <v>12449.875</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>11890.375</v>
+        <v>5428.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>12449.875</v>
+        <v>4158.125</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>6440.875</v>
       </c>
       <c r="AF31" t="n">
-        <v>5428.75</v>
+        <v>386.375</v>
       </c>
       <c r="AG31" t="n">
-        <v>4158.125</v>
+        <v>684.75</v>
       </c>
       <c r="AH31" t="n">
-        <v>6440.875</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>386.375</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>684.75</v>
-      </c>
-      <c r="AK31" t="n">
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:34">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4308,19 +4020,10 @@
       <c r="AH32" t="n">
         <v>0</v>
       </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:34">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
         <v>342.625</v>
@@ -4357,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3180.5</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4472.375</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -4393,19 +4096,19 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>2457.875</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1445.125</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2457.875</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1445.125</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4417,21 +4120,12 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
         <v>10.125</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:34">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4468,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3748.75</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3127.25</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>4442.75</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4495,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4504,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4522,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4530,19 +4224,10 @@
       <c r="AH34" t="n">
         <v>0</v>
       </c>
-      <c r="AI34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:34">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
         <v>3848</v>
@@ -4579,81 +4264,72 @@
         <v>2455.375</v>
       </c>
       <c r="N35" t="n">
-        <v>11432</v>
+        <v>2896.875</v>
       </c>
       <c r="O35" t="n">
-        <v>9625.875</v>
+        <v>1982.125</v>
       </c>
       <c r="P35" t="n">
-        <v>12514</v>
+        <v>4497.375</v>
       </c>
       <c r="Q35" t="n">
-        <v>2896.875</v>
+        <v>9150.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1982.125</v>
+        <v>7654.25</v>
       </c>
       <c r="S35" t="n">
-        <v>4497.375</v>
+        <v>8290.375</v>
       </c>
       <c r="T35" t="n">
-        <v>9150.5</v>
+        <v>2136.25</v>
       </c>
       <c r="U35" t="n">
-        <v>7654.25</v>
+        <v>2477.25</v>
       </c>
       <c r="V35" t="n">
-        <v>8290.375</v>
+        <v>2818.5</v>
       </c>
       <c r="W35" t="n">
-        <v>2136.25</v>
+        <v>6644</v>
       </c>
       <c r="X35" t="n">
-        <v>2477.25</v>
+        <v>5019.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>2818.5</v>
+        <v>6804.375</v>
       </c>
       <c r="Z35" t="n">
-        <v>6644</v>
+        <v>7597.875</v>
       </c>
       <c r="AA35" t="n">
-        <v>5019.5</v>
+        <v>8429.25</v>
       </c>
       <c r="AB35" t="n">
-        <v>6804.375</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>7597.875</v>
+        <v>8648.75</v>
       </c>
       <c r="AD35" t="n">
-        <v>8429.25</v>
+        <v>8029.625</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>9032.625</v>
       </c>
       <c r="AF35" t="n">
-        <v>8648.75</v>
+        <v>8140.625</v>
       </c>
       <c r="AG35" t="n">
-        <v>8029.625</v>
+        <v>9030.375</v>
       </c>
       <c r="AH35" t="n">
-        <v>9032.625</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>8140.625</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>9030.375</v>
-      </c>
-      <c r="AK35" t="n">
         <v>8066.625</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:34">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4690,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>45.75</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4711,34 +4387,34 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>10.625</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="X36" t="n">
-        <v>10.625</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>5.75</v>
+        <v>313.75</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>313.75</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -4747,24 +4423,15 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>31.75</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:34">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
         <v>1440.375</v>
@@ -4801,81 +4468,72 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>289.625</v>
+        <v>3523.375</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>2718.125</v>
       </c>
       <c r="P37" t="n">
-        <v>640</v>
+        <v>4201.125</v>
       </c>
       <c r="Q37" t="n">
-        <v>3523.375</v>
+        <v>1166.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.125</v>
+        <v>539.875</v>
       </c>
       <c r="S37" t="n">
-        <v>4201.125</v>
+        <v>557.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1166.75</v>
+        <v>24</v>
       </c>
       <c r="U37" t="n">
-        <v>539.875</v>
+        <v>0.75</v>
       </c>
       <c r="V37" t="n">
-        <v>557.75</v>
+        <v>69.5</v>
       </c>
       <c r="W37" t="n">
-        <v>24</v>
+        <v>525.125</v>
       </c>
       <c r="X37" t="n">
-        <v>0.75</v>
+        <v>46.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.5</v>
+        <v>310.625</v>
       </c>
       <c r="Z37" t="n">
-        <v>525.125</v>
+        <v>9054.875</v>
       </c>
       <c r="AA37" t="n">
-        <v>46.75</v>
+        <v>10194.25</v>
       </c>
       <c r="AB37" t="n">
-        <v>310.625</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>9054.875</v>
+        <v>4034.125</v>
       </c>
       <c r="AD37" t="n">
-        <v>10194.25</v>
+        <v>4921.375</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>6189.625</v>
       </c>
       <c r="AF37" t="n">
-        <v>4034.125</v>
+        <v>871.125</v>
       </c>
       <c r="AG37" t="n">
-        <v>4921.375</v>
+        <v>849</v>
       </c>
       <c r="AH37" t="n">
-        <v>6189.625</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>871.125</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>849</v>
-      </c>
-      <c r="AK37" t="n">
         <v>594.375</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:34">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
         <v>32.125</v>
@@ -4912,25 +4570,25 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>373.125</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>902.375</v>
       </c>
       <c r="Q38" t="n">
-        <v>625</v>
+        <v>16.75</v>
       </c>
       <c r="R38" t="n">
-        <v>373.125</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>902.375</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4939,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4948,45 +4606,36 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>127</v>
+        <v>8496.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>8767.125</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8558.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8496.75</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="n">
-        <v>8767.125</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>8558.5</v>
+        <v>4.375</v>
       </c>
       <c r="AF38" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AH38" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="AK38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:34">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
         <v>1.75</v>
@@ -5032,25 +4681,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>24.125</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>24.125</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5059,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -5085,19 +4734,10 @@
       <c r="AH39" t="n">
         <v>0</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:34">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" t="n">
         <v>2975.375</v>
@@ -5134,81 +4774,72 @@
         <v>4978.75</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>9523.375</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>8664.75</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>9583.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>9523.375</v>
+        <v>0.375</v>
       </c>
       <c r="R40" t="n">
-        <v>8664.75</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9583.25</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.375</v>
+        <v>4311.75</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>4542.125</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4483.625</v>
       </c>
       <c r="W40" t="n">
-        <v>4311.75</v>
+        <v>8220.75</v>
       </c>
       <c r="X40" t="n">
-        <v>4542.125</v>
+        <v>7321.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>4483.625</v>
+        <v>7645</v>
       </c>
       <c r="Z40" t="n">
-        <v>8220.75</v>
+        <v>12113.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>7321.75</v>
+        <v>12536</v>
       </c>
       <c r="AB40" t="n">
-        <v>7645</v>
+        <v>11834.125</v>
       </c>
       <c r="AC40" t="n">
-        <v>12113.75</v>
+        <v>7596.625</v>
       </c>
       <c r="AD40" t="n">
-        <v>12536</v>
+        <v>6733.75</v>
       </c>
       <c r="AE40" t="n">
-        <v>11834.125</v>
+        <v>6937.75</v>
       </c>
       <c r="AF40" t="n">
-        <v>7596.625</v>
+        <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>6733.75</v>
+        <v>1165.125</v>
       </c>
       <c r="AH40" t="n">
-        <v>6937.75</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1165.125</v>
-      </c>
-      <c r="AK40" t="n">
         <v>1156.75</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:34">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5245,7 +4876,7 @@
         <v>6.5</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5254,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -5272,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5281,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5307,19 +4938,10 @@
       <c r="AH41" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:34">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -5383,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5392,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5418,19 +5040,10 @@
       <c r="AH42" t="n">
         <v>0</v>
       </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:34">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -5524,24 +5137,15 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
       </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:34">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -5587,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -5596,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5605,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -5614,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -5640,19 +5244,10 @@
       <c r="AH44" t="n">
         <v>0</v>
       </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:34">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -5698,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -5707,17 +5302,17 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.5</v>
       </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
@@ -5725,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5751,19 +5346,10 @@
       <c r="AH45" t="n">
         <v>0</v>
       </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:34">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -5862,19 +5448,10 @@
       <c r="AH46" t="n">
         <v>0</v>
       </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:34">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -5935,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>25.25</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5973,19 +5550,10 @@
       <c r="AH47" t="n">
         <v>0</v>
       </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:34">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -6025,22 +5593,22 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>3.875</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>3.875</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -6049,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -6058,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -6067,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -6076,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -6084,19 +5652,10 @@
       <c r="AH48" t="n">
         <v>0</v>
       </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:34">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" t="n">
         <v>90.375</v>
@@ -6133,81 +5692,72 @@
         <v>1.25</v>
       </c>
       <c r="N49" t="n">
-        <v>1.375</v>
+        <v>129.375</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>120.125</v>
       </c>
       <c r="P49" t="n">
-        <v>4.75</v>
+        <v>436.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>129.375</v>
+        <v>99.5</v>
       </c>
       <c r="R49" t="n">
-        <v>120.125</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>436.25</v>
+        <v>16.875</v>
       </c>
       <c r="T49" t="n">
-        <v>99.5</v>
+        <v>15</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>0.875</v>
       </c>
       <c r="V49" t="n">
-        <v>16.875</v>
+        <v>26.75</v>
       </c>
       <c r="W49" t="n">
-        <v>15</v>
+        <v>100.125</v>
       </c>
       <c r="X49" t="n">
-        <v>0.875</v>
+        <v>2.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>26.75</v>
+        <v>13.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>100.125</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>8.625</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.375</v>
+        <v>21.625</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.625</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>21.625</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AK49" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:34">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" t="n">
         <v>5.5</v>
@@ -6244,25 +5794,25 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>10.375</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>10.375</v>
+        <v>8.25</v>
       </c>
       <c r="R50" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -6271,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6280,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6301,24 +5851,15 @@
         <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
       </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:34">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -6364,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -6373,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -6417,19 +5958,10 @@
       <c r="AH51" t="n">
         <v>0</v>
       </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:34">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6493,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -6502,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -6528,19 +6060,10 @@
       <c r="AH52" t="n">
         <v>0</v>
       </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:34">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -6577,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -6586,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.375</v>
+        <v>76.75</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -6595,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>76.75</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -6604,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -6613,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -6622,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6631,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -6639,19 +6162,10 @@
       <c r="AH53" t="n">
         <v>0</v>
       </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:34">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -6697,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -6706,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6724,19 +6238,19 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1790.75</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1800.25</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1790.75</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>1800.25</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -6750,19 +6264,10 @@
       <c r="AH54" t="n">
         <v>0</v>
       </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:34">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" t="n">
         <v>62</v>
@@ -6799,81 +6304,72 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>836.875</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>377.75</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1343.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>836.875</v>
+        <v>163.125</v>
       </c>
       <c r="R55" t="n">
-        <v>377.75</v>
+        <v>0.25</v>
       </c>
       <c r="S55" t="n">
-        <v>1343.25</v>
+        <v>1.75</v>
       </c>
       <c r="T55" t="n">
-        <v>163.125</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1931</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>2396.625</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
         <v>0.25</v>
       </c>
-      <c r="V55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1931</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>2396.625</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:34">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -6919,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -6928,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -6937,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -6946,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -6972,19 +6468,10 @@
       <c r="AH56" t="n">
         <v>0</v>
       </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:34">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -7030,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -7039,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -7048,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -7057,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -7083,19 +6570,10 @@
       <c r="AH57" t="n">
         <v>0</v>
       </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:34">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" t="n">
         <v>18.25</v>
@@ -7132,25 +6610,25 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q58" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -7159,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>24.25</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -7168,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -7194,19 +6672,10 @@
       <c r="AH58" t="n">
         <v>0</v>
       </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:34">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" t="n">
         <v>9.5</v>
@@ -7249,37 +6718,37 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>47.75</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>8.375</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="X59" t="n">
-        <v>8.375</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
@@ -7288,36 +6757,27 @@
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
         <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:34">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" t="n">
         <v>2473.5</v>
@@ -7354,43 +6814,43 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>81.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>81.75</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
         <v>1.5</v>
       </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X60" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -7399,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -7408,27 +6868,18 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="AK60" t="n">
         <v>3.625</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:34">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
         <v>244.625</v>
@@ -7465,81 +6916,72 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>3.5</v>
+        <v>159.5</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="P61" t="n">
-        <v>7.25</v>
+        <v>494.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>159.5</v>
+        <v>169.125</v>
       </c>
       <c r="R61" t="n">
-        <v>14.5</v>
+        <v>0.25</v>
       </c>
       <c r="S61" t="n">
-        <v>494.5</v>
+        <v>32.125</v>
       </c>
       <c r="T61" t="n">
-        <v>169.125</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
-        <v>0.25</v>
+        <v>14.75</v>
       </c>
       <c r="V61" t="n">
-        <v>32.125</v>
+        <v>56.25</v>
       </c>
       <c r="W61" t="n">
-        <v>4</v>
+        <v>108.5</v>
       </c>
       <c r="X61" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>56.25</v>
+        <v>17.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>108.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AB61" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.5</v>
+        <v>6.25</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>5.875</v>
       </c>
       <c r="AF61" t="n">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>49.125</v>
       </c>
       <c r="AH61" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>49.125</v>
-      </c>
-      <c r="AK61" t="n">
         <v>21.25</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:34">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" t="n">
         <v>11.75</v>
@@ -7576,55 +7018,55 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>7.875</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0.75</v>
+        <v>83.25</v>
       </c>
       <c r="Q62" t="n">
-        <v>7.875</v>
+        <v>15.5</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>83.25</v>
+        <v>0.875</v>
       </c>
       <c r="T62" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0.875</v>
+        <v>6</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>41.75</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="Z62" t="n">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
@@ -7633,24 +7075,15 @@
         <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AH62" t="n">
         <v>0</v>
       </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>23.125</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:34">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" t="n">
         <v>3014.125</v>
@@ -7687,81 +7120,72 @@
         <v>1758.875</v>
       </c>
       <c r="N63" t="n">
-        <v>5918.125</v>
+        <v>8617</v>
       </c>
       <c r="O63" t="n">
-        <v>5106.625</v>
+        <v>7333.75</v>
       </c>
       <c r="P63" t="n">
-        <v>4606.75</v>
+        <v>8122.875</v>
       </c>
       <c r="Q63" t="n">
-        <v>8617</v>
+        <v>2041.375</v>
       </c>
       <c r="R63" t="n">
-        <v>7333.75</v>
+        <v>2078.375</v>
       </c>
       <c r="S63" t="n">
-        <v>8122.875</v>
+        <v>1625.375</v>
       </c>
       <c r="T63" t="n">
-        <v>2041.375</v>
+        <v>728.125</v>
       </c>
       <c r="U63" t="n">
-        <v>2078.375</v>
+        <v>1114.125</v>
       </c>
       <c r="V63" t="n">
-        <v>1625.375</v>
+        <v>1312</v>
       </c>
       <c r="W63" t="n">
-        <v>728.125</v>
+        <v>136.25</v>
       </c>
       <c r="X63" t="n">
-        <v>1114.125</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>1312</v>
+        <v>136.875</v>
       </c>
       <c r="Z63" t="n">
-        <v>136.25</v>
+        <v>10652.375</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>10122.25</v>
       </c>
       <c r="AB63" t="n">
-        <v>136.875</v>
+        <v>10732.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>10652.375</v>
+        <v>1982.125</v>
       </c>
       <c r="AD63" t="n">
-        <v>10122.25</v>
+        <v>3383</v>
       </c>
       <c r="AE63" t="n">
-        <v>10732.5</v>
+        <v>1322.75</v>
       </c>
       <c r="AF63" t="n">
-        <v>1982.125</v>
+        <v>1035</v>
       </c>
       <c r="AG63" t="n">
-        <v>3383</v>
+        <v>504.25</v>
       </c>
       <c r="AH63" t="n">
-        <v>1322.75</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>1035</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>504.25</v>
-      </c>
-      <c r="AK63" t="n">
         <v>329.25</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:34">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -7804,43 +7228,43 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="AC64" t="n">
         <v>0</v>
@@ -7849,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="AF64" t="n">
         <v>0</v>
@@ -7860,19 +7284,10 @@
       <c r="AH64" t="n">
         <v>0</v>
       </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:34">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -7918,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -7927,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -7936,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -7945,22 +7360,22 @@
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.75</v>
+        <v>113.875</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>248.375</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>106.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>113.875</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>248.375</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>106.5</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
         <v>0</v>
@@ -7971,19 +7386,10 @@
       <c r="AH65" t="n">
         <v>0</v>
       </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:34">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="n">
         <v>0.5</v>
@@ -8020,25 +7426,25 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1305.875</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1001.125</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>16.375</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>16.375</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -8047,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -8056,45 +7462,36 @@
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>19.25</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>6148.125</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>627.375</v>
       </c>
       <c r="AE66" t="n">
-        <v>6148.125</v>
+        <v>171.375</v>
       </c>
       <c r="AF66" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>627.375</v>
+        <v>203.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>171.375</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="AK66" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:34">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" t="n">
         <v>805.125</v>
@@ -8131,81 +7528,72 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>74.875</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>140.625</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>74.875</v>
+        <v>7.5</v>
       </c>
       <c r="T67" t="n">
-        <v>140.625</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="V67" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="X67" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>22.375</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>22.375</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AF67" t="n">
         <v>0</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>606.125</v>
       </c>
       <c r="AH67" t="n">
-        <v>850</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>606.125</v>
-      </c>
-      <c r="AK67" t="n">
         <v>6.75</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:34">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n">
         <v>1486.5</v>
@@ -8242,81 +7630,72 @@
         <v>2416.125</v>
       </c>
       <c r="N68" t="n">
-        <v>4231.125</v>
+        <v>3005.75</v>
       </c>
       <c r="O68" t="n">
-        <v>3866.875</v>
+        <v>1419.125</v>
       </c>
       <c r="P68" t="n">
-        <v>6.25</v>
+        <v>2441.875</v>
       </c>
       <c r="Q68" t="n">
-        <v>3005.75</v>
+        <v>128.75</v>
       </c>
       <c r="R68" t="n">
-        <v>1419.125</v>
+        <v>15.75</v>
       </c>
       <c r="S68" t="n">
-        <v>2441.875</v>
+        <v>61.375</v>
       </c>
       <c r="T68" t="n">
-        <v>128.75</v>
+        <v>1932.25</v>
       </c>
       <c r="U68" t="n">
-        <v>15.75</v>
+        <v>2354.5</v>
       </c>
       <c r="V68" t="n">
-        <v>61.375</v>
+        <v>2127.375</v>
       </c>
       <c r="W68" t="n">
-        <v>1932.25</v>
+        <v>6296.375</v>
       </c>
       <c r="X68" t="n">
-        <v>2354.5</v>
+        <v>4697.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>2127.375</v>
+        <v>5599.875</v>
       </c>
       <c r="Z68" t="n">
-        <v>6296.375</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>4697.5</v>
+        <v>2.625</v>
       </c>
       <c r="AB68" t="n">
-        <v>5599.875</v>
+        <v>9468.75</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1460.25</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.625</v>
+        <v>1</v>
       </c>
       <c r="AE68" t="n">
-        <v>9468.75</v>
+        <v>3002.125</v>
       </c>
       <c r="AF68" t="n">
-        <v>1460.25</v>
+        <v>2488.625</v>
       </c>
       <c r="AG68" t="n">
-        <v>1</v>
+        <v>4725.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>3002.125</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>2488.625</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>4725.5</v>
-      </c>
-      <c r="AK68" t="n">
         <v>56.125</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:34">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -8362,49 +7741,49 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>151.25</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>406.75</v>
       </c>
       <c r="T69" t="n">
-        <v>151.25</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>406.75</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>40.25</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>40.25</v>
+        <v>10.875</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>51.625</v>
       </c>
       <c r="AB69" t="n">
-        <v>2.25</v>
+        <v>218</v>
       </c>
       <c r="AC69" t="n">
-        <v>10.875</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>51.625</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -8413,21 +7792,12 @@
         <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:34">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="n">
         <v>0.25</v>
@@ -8470,19 +7840,19 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -8491,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -8500,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
         <v>0</v>
@@ -8526,19 +7896,10 @@
       <c r="AH70" t="n">
         <v>0</v>
       </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:34">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -8575,81 +7936,72 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>44.5</v>
+        <v>11.25</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.5</v>
+        <v>1824.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>2423.75</v>
       </c>
       <c r="AC71" t="n">
-        <v>1824.25</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>1973</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>2423.75</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH71" t="n">
         <v>0</v>
       </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:34">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B72" t="n">
         <v>31</v>
@@ -8686,81 +8038,72 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>155.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>16.25</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4.125</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>155.25</v>
+        <v>0.625</v>
       </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
         <v>5</v>
       </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.625</v>
-      </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>58.25</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>58.25</v>
+        <v>116.875</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>299.125</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>116.875</v>
+        <v>0.25</v>
       </c>
       <c r="AD72" t="n">
-        <v>299.125</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK72" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:34">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>3484</v>
@@ -8797,81 +8140,72 @@
         <v>627.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2309.875</v>
+        <v>447.375</v>
       </c>
       <c r="O73" t="n">
-        <v>2270.5</v>
+        <v>143.875</v>
       </c>
       <c r="P73" t="n">
-        <v>2827.125</v>
+        <v>943.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>447.375</v>
+        <v>237</v>
       </c>
       <c r="R73" t="n">
-        <v>143.875</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>943.5</v>
+        <v>53.5</v>
       </c>
       <c r="T73" t="n">
-        <v>237</v>
+        <v>2135.875</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2211.125</v>
       </c>
       <c r="V73" t="n">
-        <v>53.5</v>
+        <v>2111.5</v>
       </c>
       <c r="W73" t="n">
-        <v>2135.875</v>
+        <v>3780.5</v>
       </c>
       <c r="X73" t="n">
-        <v>2211.125</v>
+        <v>2308.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>2111.5</v>
+        <v>3755</v>
       </c>
       <c r="Z73" t="n">
-        <v>3780.5</v>
+        <v>11135.75</v>
       </c>
       <c r="AA73" t="n">
-        <v>2308.5</v>
+        <v>10978.75</v>
       </c>
       <c r="AB73" t="n">
-        <v>3755</v>
+        <v>11080.25</v>
       </c>
       <c r="AC73" t="n">
-        <v>11135.75</v>
+        <v>11.75</v>
       </c>
       <c r="AD73" t="n">
-        <v>10978.75</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>11080.25</v>
+        <v>11.875</v>
       </c>
       <c r="AF73" t="n">
-        <v>11.75</v>
+        <v>3525.75</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>2843</v>
       </c>
       <c r="AH73" t="n">
-        <v>11.875</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>3525.75</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>2843</v>
-      </c>
-      <c r="AK73" t="n">
         <v>2583.25</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:34">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
         <v>7579.125</v>
@@ -8908,81 +8242,72 @@
         <v>6979</v>
       </c>
       <c r="N74" t="n">
-        <v>11824.625</v>
+        <v>6426.125</v>
       </c>
       <c r="O74" t="n">
-        <v>11965.375</v>
+        <v>5691.125</v>
       </c>
       <c r="P74" t="n">
-        <v>13150.625</v>
+        <v>7609.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>6426.125</v>
+        <v>214.25</v>
       </c>
       <c r="R74" t="n">
-        <v>5691.125</v>
+        <v>28.75</v>
       </c>
       <c r="S74" t="n">
-        <v>7609.5</v>
+        <v>328.25</v>
       </c>
       <c r="T74" t="n">
-        <v>214.25</v>
+        <v>6678.25</v>
       </c>
       <c r="U74" t="n">
-        <v>28.75</v>
+        <v>6707.25</v>
       </c>
       <c r="V74" t="n">
-        <v>328.25</v>
+        <v>7317.75</v>
       </c>
       <c r="W74" t="n">
-        <v>6678.25</v>
+        <v>8060</v>
       </c>
       <c r="X74" t="n">
-        <v>6707.25</v>
+        <v>7186.125</v>
       </c>
       <c r="Y74" t="n">
-        <v>7317.75</v>
+        <v>7297.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>8060</v>
+        <v>13032.75</v>
       </c>
       <c r="AA74" t="n">
-        <v>7186.125</v>
+        <v>12257.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>7297.5</v>
+        <v>13064.875</v>
       </c>
       <c r="AC74" t="n">
-        <v>13032.75</v>
+        <v>6753.125</v>
       </c>
       <c r="AD74" t="n">
-        <v>12257.5</v>
+        <v>7854.25</v>
       </c>
       <c r="AE74" t="n">
-        <v>13064.875</v>
+        <v>6352.125</v>
       </c>
       <c r="AF74" t="n">
-        <v>6753.125</v>
+        <v>8902.375</v>
       </c>
       <c r="AG74" t="n">
-        <v>7854.25</v>
+        <v>7541.625</v>
       </c>
       <c r="AH74" t="n">
-        <v>6352.125</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>8902.375</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>7541.625</v>
-      </c>
-      <c r="AK74" t="n">
         <v>7882.375</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:34">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" t="n">
         <v>8.625</v>
@@ -9019,25 +8344,25 @@
         <v>34.75</v>
       </c>
       <c r="N75" t="n">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>809.75</v>
+        <v>114.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>114.25</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -9046,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -9055,45 +8380,36 @@
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>62</v>
+        <v>790.875</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>2704.125</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>873.125</v>
       </c>
       <c r="AC75" t="n">
-        <v>790.875</v>
+        <v>0.75</v>
       </c>
       <c r="AD75" t="n">
-        <v>2704.125</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>873.125</v>
+        <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>22.875</v>
-      </c>
-      <c r="AK75" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:34">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76" t="n">
         <v>1507.5</v>
@@ -9130,81 +8446,72 @@
         <v>489.375</v>
       </c>
       <c r="N76" t="n">
-        <v>15.625</v>
+        <v>1.75</v>
       </c>
       <c r="O76" t="n">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1484.125</v>
+        <v>18</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>18</v>
+        <v>0.375</v>
       </c>
       <c r="T76" t="n">
-        <v>0.75</v>
+        <v>1522.875</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="V76" t="n">
-        <v>0.375</v>
+        <v>158.75</v>
       </c>
       <c r="W76" t="n">
-        <v>1522.875</v>
+        <v>6724.875</v>
       </c>
       <c r="X76" t="n">
-        <v>255.5</v>
+        <v>5395.625</v>
       </c>
       <c r="Y76" t="n">
-        <v>158.75</v>
+        <v>5039.125</v>
       </c>
       <c r="Z76" t="n">
-        <v>6724.875</v>
+        <v>4.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>5395.625</v>
+        <v>72.375</v>
       </c>
       <c r="AB76" t="n">
-        <v>5039.125</v>
+        <v>9.25</v>
       </c>
       <c r="AC76" t="n">
-        <v>4.5</v>
+        <v>7451.875</v>
       </c>
       <c r="AD76" t="n">
-        <v>72.375</v>
+        <v>7400.875</v>
       </c>
       <c r="AE76" t="n">
-        <v>9.25</v>
+        <v>7483.75</v>
       </c>
       <c r="AF76" t="n">
-        <v>7451.875</v>
+        <v>51.125</v>
       </c>
       <c r="AG76" t="n">
-        <v>7400.875</v>
+        <v>660</v>
       </c>
       <c r="AH76" t="n">
-        <v>7483.75</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>51.125</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>660</v>
-      </c>
-      <c r="AK76" t="n">
         <v>8.125</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:34">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
         <v>5.125</v>
@@ -9241,43 +8548,43 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>0.875</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>20.5</v>
       </c>
       <c r="W77" t="n">
-        <v>0.875</v>
+        <v>35.5</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
         <v>0</v>
@@ -9298,24 +8605,15 @@
         <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH77" t="n">
         <v>0</v>
       </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:34">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" t="n">
         <v>3426.625</v>
@@ -9352,81 +8650,72 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>7276.75</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>7483</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>14.75</v>
+        <v>128.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>128.25</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>89.75</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1993.25</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1499.625</v>
       </c>
       <c r="Y78" t="n">
-        <v>89.75</v>
+        <v>2203.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>1993.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA78" t="n">
-        <v>1499.625</v>
+        <v>105.625</v>
       </c>
       <c r="AB78" t="n">
-        <v>2203.5</v>
+        <v>496</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.25</v>
+        <v>3</v>
       </c>
       <c r="AD78" t="n">
-        <v>105.625</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>496</v>
+        <v>1.75</v>
       </c>
       <c r="AF78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>500.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>500.25</v>
-      </c>
-      <c r="AK78" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:34">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="n">
         <v>4660</v>
@@ -9472,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -9481,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -9490,25 +8779,25 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>4411</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>3919</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>4823.125</v>
       </c>
       <c r="Z79" t="n">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="AA79" t="n">
-        <v>3919</v>
+        <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>4823.125</v>
+        <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -9517,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="AF79" t="n">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="AG79" t="n">
         <v>0</v>
@@ -9525,19 +8814,10 @@
       <c r="AH79" t="n">
         <v>0</v>
       </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:34">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B80" t="n">
         <v>0.5</v>
@@ -9574,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -9583,25 +8863,25 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.875</v>
+        <v>0.25</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
@@ -9610,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>38.875</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
@@ -9622,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>38.875</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
@@ -9636,19 +8916,10 @@
       <c r="AH80" t="n">
         <v>0</v>
       </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:34">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" t="n">
         <v>2790.625</v>
@@ -9685,81 +8956,72 @@
         <v>6016.875</v>
       </c>
       <c r="N81" t="n">
-        <v>8708.75</v>
+        <v>9696.125</v>
       </c>
       <c r="O81" t="n">
-        <v>8288.375</v>
+        <v>9318.75</v>
       </c>
       <c r="P81" t="n">
-        <v>4068.75</v>
+        <v>9858.875</v>
       </c>
       <c r="Q81" t="n">
-        <v>9696.125</v>
+        <v>8757.625</v>
       </c>
       <c r="R81" t="n">
-        <v>9318.75</v>
+        <v>7514.75</v>
       </c>
       <c r="S81" t="n">
-        <v>9858.875</v>
+        <v>7583.75</v>
       </c>
       <c r="T81" t="n">
-        <v>8757.625</v>
+        <v>4332.125</v>
       </c>
       <c r="U81" t="n">
-        <v>7514.75</v>
+        <v>4364.25</v>
       </c>
       <c r="V81" t="n">
-        <v>7583.75</v>
+        <v>4747.5</v>
       </c>
       <c r="W81" t="n">
-        <v>4332.125</v>
+        <v>8397.5</v>
       </c>
       <c r="X81" t="n">
-        <v>4364.25</v>
+        <v>7938.375</v>
       </c>
       <c r="Y81" t="n">
-        <v>4747.5</v>
+        <v>7894.75</v>
       </c>
       <c r="Z81" t="n">
-        <v>8397.5</v>
+        <v>6954</v>
       </c>
       <c r="AA81" t="n">
-        <v>7938.375</v>
+        <v>1.25</v>
       </c>
       <c r="AB81" t="n">
-        <v>7894.75</v>
+        <v>11016.75</v>
       </c>
       <c r="AC81" t="n">
-        <v>6954</v>
+        <v>8792.875</v>
       </c>
       <c r="AD81" t="n">
-        <v>1.25</v>
+        <v>8750.25</v>
       </c>
       <c r="AE81" t="n">
-        <v>11016.75</v>
+        <v>8619.875</v>
       </c>
       <c r="AF81" t="n">
-        <v>8792.875</v>
+        <v>8303.375</v>
       </c>
       <c r="AG81" t="n">
-        <v>8750.25</v>
+        <v>9176.625</v>
       </c>
       <c r="AH81" t="n">
-        <v>8619.875</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>8303.375</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>9176.625</v>
-      </c>
-      <c r="AK81" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:34">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
         <v>1.25</v>
@@ -9802,19 +9064,19 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -9823,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -9832,45 +9094,36 @@
         <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE82" t="n">
-        <v>0</v>
-      </c>
       <c r="AF82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="AH82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="AK82" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:34">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B83" t="n">
         <v>631.125</v>
@@ -9907,81 +9160,72 @@
         <v>0.25</v>
       </c>
       <c r="N83" t="n">
-        <v>3.625</v>
+        <v>30.625</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>186.25</v>
+        <v>48.625</v>
       </c>
       <c r="Q83" t="n">
-        <v>30.625</v>
+        <v>115.625</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>48.625</v>
+        <v>224.625</v>
       </c>
       <c r="T83" t="n">
-        <v>115.625</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>45.875</v>
       </c>
       <c r="V83" t="n">
-        <v>224.625</v>
+        <v>184.25</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="X83" t="n">
-        <v>45.875</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>184.25</v>
+        <v>577.375</v>
       </c>
       <c r="Z83" t="n">
-        <v>212.5</v>
+        <v>0</v>
       </c>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>577.375</v>
+        <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>87.875</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>41.375</v>
       </c>
       <c r="AF83" t="n">
-        <v>87.875</v>
+        <v>0</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AH83" t="n">
-        <v>41.375</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AK83" t="n">
         <v>131.25</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:34">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="n">
         <v>61.75</v>
@@ -10018,81 +9262,72 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.25</v>
+        <v>30.625</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>19.25</v>
+        <v>215.125</v>
       </c>
       <c r="Q84" t="n">
-        <v>30.625</v>
+        <v>57.625</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>215.125</v>
+        <v>2.5</v>
       </c>
       <c r="T84" t="n">
-        <v>57.625</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>2.5</v>
+        <v>12.75</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>126.25</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>12.75</v>
+        <v>1</v>
       </c>
       <c r="Z84" t="n">
-        <v>126.25</v>
+        <v>768.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="AB84" t="n">
-        <v>1</v>
+        <v>2119</v>
       </c>
       <c r="AC84" t="n">
-        <v>768.5</v>
+        <v>11.875</v>
       </c>
       <c r="AD84" t="n">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>2119</v>
+        <v>3.875</v>
       </c>
       <c r="AF84" t="n">
-        <v>11.875</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH84" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK84" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:34">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" t="n">
         <v>762.25</v>
@@ -10129,81 +9364,72 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>20.375</v>
+        <v>212.25</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>199.375</v>
+        <v>1177</v>
       </c>
       <c r="Q85" t="n">
-        <v>212.25</v>
+        <v>896.375</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S85" t="n">
-        <v>1177</v>
+        <v>617.25</v>
       </c>
       <c r="T85" t="n">
-        <v>896.375</v>
+        <v>0.75</v>
       </c>
       <c r="U85" t="n">
-        <v>1.5</v>
+        <v>10.125</v>
       </c>
       <c r="V85" t="n">
-        <v>617.25</v>
+        <v>97.75</v>
       </c>
       <c r="W85" t="n">
-        <v>0.75</v>
+        <v>612.75</v>
       </c>
       <c r="X85" t="n">
-        <v>10.125</v>
+        <v>0.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>97.75</v>
+        <v>913.875</v>
       </c>
       <c r="Z85" t="n">
-        <v>612.75</v>
+        <v>1933.75</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.25</v>
+        <v>1684.75</v>
       </c>
       <c r="AB85" t="n">
-        <v>913.875</v>
+        <v>1945</v>
       </c>
       <c r="AC85" t="n">
-        <v>1933.75</v>
+        <v>94.75</v>
       </c>
       <c r="AD85" t="n">
-        <v>1684.75</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>1945</v>
+        <v>103</v>
       </c>
       <c r="AF85" t="n">
-        <v>94.75</v>
+        <v>1</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AH85" t="n">
-        <v>103</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>91</v>
-      </c>
-      <c r="AK85" t="n">
         <v>25.75</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:34">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B86" t="n">
         <v>130</v>
@@ -10240,81 +9466,72 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>6339.25</v>
+        <v>1605.25</v>
       </c>
       <c r="O86" t="n">
-        <v>4450.625</v>
+        <v>297.125</v>
       </c>
       <c r="P86" t="n">
-        <v>5511.375</v>
+        <v>1557.125</v>
       </c>
       <c r="Q86" t="n">
-        <v>1605.25</v>
+        <v>2041</v>
       </c>
       <c r="R86" t="n">
-        <v>297.125</v>
+        <v>1110.625</v>
       </c>
       <c r="S86" t="n">
-        <v>1557.125</v>
+        <v>2848.125</v>
       </c>
       <c r="T86" t="n">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>1110.625</v>
+        <v>9.375</v>
       </c>
       <c r="V86" t="n">
-        <v>2848.125</v>
+        <v>131.75</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>741.875</v>
       </c>
       <c r="X86" t="n">
-        <v>9.375</v>
+        <v>2</v>
       </c>
       <c r="Y86" t="n">
-        <v>131.75</v>
+        <v>597.875</v>
       </c>
       <c r="Z86" t="n">
-        <v>741.875</v>
+        <v>9557.25</v>
       </c>
       <c r="AA86" t="n">
-        <v>2</v>
+        <v>9273.25</v>
       </c>
       <c r="AB86" t="n">
-        <v>597.875</v>
+        <v>9369.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>9557.25</v>
+        <v>3795.125</v>
       </c>
       <c r="AD86" t="n">
-        <v>9273.25</v>
+        <v>2389</v>
       </c>
       <c r="AE86" t="n">
-        <v>9369.5</v>
+        <v>4270.125</v>
       </c>
       <c r="AF86" t="n">
-        <v>3795.125</v>
+        <v>476.875</v>
       </c>
       <c r="AG86" t="n">
-        <v>2389</v>
+        <v>1007.625</v>
       </c>
       <c r="AH86" t="n">
-        <v>4270.125</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>476.875</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>1007.625</v>
-      </c>
-      <c r="AK86" t="n">
         <v>336.625</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:34">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B87" t="n">
         <v>4839.75</v>
@@ -10351,81 +9568,72 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>614.5</v>
+        <v>3051.875</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>856.25</v>
       </c>
       <c r="P87" t="n">
-        <v>920.125</v>
+        <v>2061.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>3051.875</v>
+        <v>9633.75</v>
       </c>
       <c r="R87" t="n">
-        <v>856.25</v>
+        <v>9529.25</v>
       </c>
       <c r="S87" t="n">
-        <v>2061.75</v>
+        <v>9364.75</v>
       </c>
       <c r="T87" t="n">
-        <v>9633.75</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>9529.25</v>
+        <v>4</v>
       </c>
       <c r="V87" t="n">
-        <v>9364.75</v>
+        <v>110.875</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="X87" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4</v>
       </c>
-      <c r="Y87" t="n">
-        <v>110.875</v>
-      </c>
       <c r="Z87" t="n">
-        <v>267.5</v>
+        <v>11741.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>0.25</v>
+        <v>12146.875</v>
       </c>
       <c r="AB87" t="n">
-        <v>4</v>
+        <v>12053.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>11741.5</v>
+        <v>8775.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>12146.875</v>
+        <v>6448.125</v>
       </c>
       <c r="AE87" t="n">
-        <v>12053.5</v>
+        <v>9641.875</v>
       </c>
       <c r="AF87" t="n">
-        <v>8775.5</v>
+        <v>6807.25</v>
       </c>
       <c r="AG87" t="n">
-        <v>6448.125</v>
+        <v>6973.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>9641.875</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>6807.25</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>6973.25</v>
-      </c>
-      <c r="AK87" t="n">
         <v>6257.125</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:34">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B88" t="n">
         <v>2446.625</v>
@@ -10462,81 +9670,72 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>354.625</v>
+        <v>7201</v>
       </c>
       <c r="O88" t="n">
-        <v>22.5</v>
+        <v>5955.375</v>
       </c>
       <c r="P88" t="n">
-        <v>568.375</v>
+        <v>5918.375</v>
       </c>
       <c r="Q88" t="n">
-        <v>7201</v>
+        <v>5830.625</v>
       </c>
       <c r="R88" t="n">
-        <v>5955.375</v>
+        <v>5312.875</v>
       </c>
       <c r="S88" t="n">
-        <v>5918.375</v>
+        <v>5294.625</v>
       </c>
       <c r="T88" t="n">
-        <v>5830.625</v>
+        <v>434.75</v>
       </c>
       <c r="U88" t="n">
-        <v>5312.875</v>
+        <v>425.5</v>
       </c>
       <c r="V88" t="n">
-        <v>5294.625</v>
+        <v>385.875</v>
       </c>
       <c r="W88" t="n">
-        <v>434.75</v>
+        <v>88</v>
       </c>
       <c r="X88" t="n">
-        <v>425.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y88" t="n">
-        <v>385.875</v>
+        <v>28.125</v>
       </c>
       <c r="Z88" t="n">
-        <v>88</v>
+        <v>12389.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>2.25</v>
+        <v>12339.375</v>
       </c>
       <c r="AB88" t="n">
-        <v>28.125</v>
+        <v>11889.375</v>
       </c>
       <c r="AC88" t="n">
-        <v>12389.5</v>
+        <v>9568.625</v>
       </c>
       <c r="AD88" t="n">
-        <v>12339.375</v>
+        <v>7487.25</v>
       </c>
       <c r="AE88" t="n">
-        <v>11889.375</v>
+        <v>10894.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>9568.625</v>
+        <v>7197.875</v>
       </c>
       <c r="AG88" t="n">
-        <v>7487.25</v>
+        <v>7440.75</v>
       </c>
       <c r="AH88" t="n">
-        <v>10894.75</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>7197.875</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>7440.75</v>
-      </c>
-      <c r="AK88" t="n">
         <v>6839.25</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:34">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B89" t="n">
         <v>20.375</v>
@@ -10573,81 +9772,72 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>112</v>
+        <v>19.25</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>23</v>
+        <v>164.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>19.25</v>
+        <v>4012.5</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>3426.25</v>
       </c>
       <c r="S89" t="n">
-        <v>164.5</v>
+        <v>3923.5</v>
       </c>
       <c r="T89" t="n">
-        <v>4012.5</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>3426.25</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>3923.5</v>
+        <v>6.75</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89" t="n">
-        <v>6.75</v>
+        <v>16.75</v>
       </c>
       <c r="Z89" t="n">
-        <v>123</v>
+        <v>9506.375</v>
       </c>
       <c r="AA89" t="n">
-        <v>1</v>
+        <v>9255.875</v>
       </c>
       <c r="AB89" t="n">
-        <v>16.75</v>
+        <v>9722.125</v>
       </c>
       <c r="AC89" t="n">
-        <v>9506.375</v>
+        <v>7504.125</v>
       </c>
       <c r="AD89" t="n">
-        <v>9255.875</v>
+        <v>4217.625</v>
       </c>
       <c r="AE89" t="n">
-        <v>9722.125</v>
+        <v>9202.75</v>
       </c>
       <c r="AF89" t="n">
-        <v>7504.125</v>
+        <v>3502.25</v>
       </c>
       <c r="AG89" t="n">
-        <v>4217.625</v>
+        <v>3186.25</v>
       </c>
       <c r="AH89" t="n">
-        <v>9202.75</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>3502.25</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>3186.25</v>
-      </c>
-      <c r="AK89" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:34">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B90" t="n">
         <v>8164.875</v>
@@ -10684,81 +9874,72 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>5071.25</v>
+        <v>3297.5</v>
       </c>
       <c r="O90" t="n">
-        <v>6658.375</v>
+        <v>1424.875</v>
       </c>
       <c r="P90" t="n">
-        <v>409.75</v>
+        <v>3687.375</v>
       </c>
       <c r="Q90" t="n">
-        <v>3297.5</v>
+        <v>9907.25</v>
       </c>
       <c r="R90" t="n">
-        <v>1424.875</v>
+        <v>9040.875</v>
       </c>
       <c r="S90" t="n">
-        <v>3687.375</v>
+        <v>9753.125</v>
       </c>
       <c r="T90" t="n">
-        <v>9907.25</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>9040.875</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>9753.125</v>
+        <v>0.75</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>60.25</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.75</v>
+        <v>303</v>
       </c>
       <c r="Z90" t="n">
-        <v>60.25</v>
+        <v>11398.375</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>11335.625</v>
       </c>
       <c r="AB90" t="n">
-        <v>303</v>
+        <v>11381.875</v>
       </c>
       <c r="AC90" t="n">
-        <v>11398.375</v>
+        <v>3953.75</v>
       </c>
       <c r="AD90" t="n">
-        <v>11335.625</v>
+        <v>1342.625</v>
       </c>
       <c r="AE90" t="n">
-        <v>11381.875</v>
+        <v>6370.875</v>
       </c>
       <c r="AF90" t="n">
-        <v>3953.75</v>
+        <v>5834.625</v>
       </c>
       <c r="AG90" t="n">
-        <v>1342.625</v>
+        <v>6437.25</v>
       </c>
       <c r="AH90" t="n">
-        <v>6370.875</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>5834.625</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>6437.25</v>
-      </c>
-      <c r="AK90" t="n">
         <v>4381.5</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:34">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" t="n">
         <v>3423.375</v>
@@ -10795,81 +9976,72 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>90.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>8</v>
+        <v>7108.75</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>6482</v>
       </c>
       <c r="S91" t="n">
-        <v>90.5</v>
+        <v>6846.5</v>
       </c>
       <c r="T91" t="n">
-        <v>7108.75</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>6482</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>6846.5</v>
+        <v>2.75</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>2.75</v>
+        <v>28.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>73.5</v>
+        <v>6140.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>5987.625</v>
       </c>
       <c r="AB91" t="n">
-        <v>28.5</v>
+        <v>7543.375</v>
       </c>
       <c r="AC91" t="n">
-        <v>6140.5</v>
+        <v>133</v>
       </c>
       <c r="AD91" t="n">
-        <v>5987.625</v>
+        <v>0.25</v>
       </c>
       <c r="AE91" t="n">
-        <v>7543.375</v>
+        <v>833</v>
       </c>
       <c r="AF91" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.25</v>
+        <v>86.25</v>
       </c>
       <c r="AH91" t="n">
-        <v>833</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="AK91" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:34">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="n">
         <v>303.625</v>
@@ -10906,81 +10078,72 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.25</v>
+        <v>1315.75</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>524.25</v>
       </c>
       <c r="S92" t="n">
-        <v>43.5</v>
+        <v>1325.25</v>
       </c>
       <c r="T92" t="n">
-        <v>1315.75</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>524.25</v>
+        <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>1325.25</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>331.25</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>143.75</v>
       </c>
       <c r="Z92" t="n">
-        <v>331.25</v>
+        <v>10295.625</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>10008.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>143.75</v>
+        <v>10552.625</v>
       </c>
       <c r="AC92" t="n">
-        <v>10295.625</v>
+        <v>484.25</v>
       </c>
       <c r="AD92" t="n">
-        <v>10008.5</v>
+        <v>737</v>
       </c>
       <c r="AE92" t="n">
-        <v>10552.625</v>
+        <v>1381</v>
       </c>
       <c r="AF92" t="n">
-        <v>484.25</v>
+        <v>0</v>
       </c>
       <c r="AG92" t="n">
-        <v>737</v>
+        <v>5.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>1381</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK92" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:34">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="n">
         <v>817.875</v>
@@ -11017,81 +10180,72 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1.75</v>
+        <v>410.5</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="P93" t="n">
-        <v>21</v>
+        <v>807</v>
       </c>
       <c r="Q93" t="n">
-        <v>410.5</v>
+        <v>5288.25</v>
       </c>
       <c r="R93" t="n">
-        <v>11.5</v>
+        <v>4139</v>
       </c>
       <c r="S93" t="n">
-        <v>807</v>
+        <v>5128.75</v>
       </c>
       <c r="T93" t="n">
-        <v>5288.25</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>4139</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>5128.75</v>
+        <v>1.25</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>452.5</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.25</v>
+        <v>236</v>
       </c>
       <c r="Z93" t="n">
-        <v>452.5</v>
+        <v>9518.625</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>9396.75</v>
       </c>
       <c r="AB93" t="n">
-        <v>236</v>
+        <v>10018.75</v>
       </c>
       <c r="AC93" t="n">
-        <v>9518.625</v>
+        <v>2922.625</v>
       </c>
       <c r="AD93" t="n">
-        <v>9396.75</v>
+        <v>2519</v>
       </c>
       <c r="AE93" t="n">
-        <v>10018.75</v>
+        <v>4196.75</v>
       </c>
       <c r="AF93" t="n">
-        <v>2922.625</v>
+        <v>0</v>
       </c>
       <c r="AG93" t="n">
-        <v>2519</v>
+        <v>233.375</v>
       </c>
       <c r="AH93" t="n">
-        <v>4196.75</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>233.375</v>
-      </c>
-      <c r="AK93" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:34">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" t="n">
         <v>6985.25</v>
@@ -11128,81 +10282,72 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>195.5</v>
+        <v>876.875</v>
       </c>
       <c r="O94" t="n">
-        <v>88.25</v>
+        <v>64.875</v>
       </c>
       <c r="P94" t="n">
-        <v>409.625</v>
+        <v>1370</v>
       </c>
       <c r="Q94" t="n">
-        <v>876.875</v>
+        <v>10627.75</v>
       </c>
       <c r="R94" t="n">
-        <v>64.875</v>
+        <v>9877.875</v>
       </c>
       <c r="S94" t="n">
-        <v>1370</v>
+        <v>10317.25</v>
       </c>
       <c r="T94" t="n">
-        <v>10627.75</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>9877.875</v>
+        <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>10317.25</v>
+        <v>6</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>490.5</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>6</v>
+        <v>679.25</v>
       </c>
       <c r="Z94" t="n">
-        <v>490.5</v>
+        <v>10855.875</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>10921</v>
       </c>
       <c r="AB94" t="n">
-        <v>679.25</v>
+        <v>10831.625</v>
       </c>
       <c r="AC94" t="n">
-        <v>10855.875</v>
+        <v>1887.875</v>
       </c>
       <c r="AD94" t="n">
-        <v>10921</v>
+        <v>1868.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>10831.625</v>
+        <v>2723</v>
       </c>
       <c r="AF94" t="n">
-        <v>1887.875</v>
+        <v>5115.75</v>
       </c>
       <c r="AG94" t="n">
-        <v>1868.5</v>
+        <v>5604.125</v>
       </c>
       <c r="AH94" t="n">
-        <v>2723</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>5115.75</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>5604.125</v>
-      </c>
-      <c r="AK94" t="n">
         <v>4658.625</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:34">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B95" t="n">
         <v>249.125</v>
@@ -11239,81 +10384,72 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>91.5</v>
+        <v>937.5</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>11.625</v>
       </c>
       <c r="P95" t="n">
-        <v>374</v>
+        <v>1233.625</v>
       </c>
       <c r="Q95" t="n">
-        <v>937.5</v>
+        <v>467.875</v>
       </c>
       <c r="R95" t="n">
-        <v>11.625</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>1233.625</v>
+        <v>136.125</v>
       </c>
       <c r="T95" t="n">
-        <v>467.875</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>136.125</v>
+        <v>8.25</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>258.5</v>
       </c>
       <c r="X95" t="n">
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.25</v>
+        <v>132.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>258.5</v>
+        <v>9530.125</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>10204.875</v>
       </c>
       <c r="AB95" t="n">
-        <v>132.75</v>
+        <v>9578</v>
       </c>
       <c r="AC95" t="n">
-        <v>9530.125</v>
+        <v>125</v>
       </c>
       <c r="AD95" t="n">
-        <v>10204.875</v>
+        <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>9578</v>
+        <v>247.75</v>
       </c>
       <c r="AF95" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>70.125</v>
       </c>
       <c r="AH95" t="n">
-        <v>247.75</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>70.125</v>
-      </c>
-      <c r="AK95" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:34">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="n">
         <v>7086.625</v>
@@ -11350,81 +10486,72 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>159.625</v>
+        <v>342.25</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P96" t="n">
-        <v>653.375</v>
+        <v>607.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>342.25</v>
+        <v>1636.875</v>
       </c>
       <c r="R96" t="n">
-        <v>0.75</v>
+        <v>813.875</v>
       </c>
       <c r="S96" t="n">
-        <v>607.25</v>
+        <v>1501.375</v>
       </c>
       <c r="T96" t="n">
-        <v>1636.875</v>
+        <v>7</v>
       </c>
       <c r="U96" t="n">
-        <v>813.875</v>
+        <v>3.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1501.375</v>
+        <v>310.625</v>
       </c>
       <c r="W96" t="n">
-        <v>7</v>
+        <v>821.125</v>
       </c>
       <c r="X96" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>310.625</v>
+        <v>1007.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>821.125</v>
+        <v>4374</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>5152.125</v>
       </c>
       <c r="AB96" t="n">
-        <v>1007.5</v>
+        <v>5010</v>
       </c>
       <c r="AC96" t="n">
-        <v>4374</v>
+        <v>596.125</v>
       </c>
       <c r="AD96" t="n">
-        <v>5152.125</v>
+        <v>0</v>
       </c>
       <c r="AE96" t="n">
-        <v>5010</v>
+        <v>749.875</v>
       </c>
       <c r="AF96" t="n">
-        <v>596.125</v>
+        <v>0</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>818.75</v>
       </c>
       <c r="AH96" t="n">
-        <v>749.875</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>818.75</v>
-      </c>
-      <c r="AK96" t="n">
         <v>66.5</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:34">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B97" t="n">
         <v>9456.375</v>
@@ -11461,75 +10588,66 @@
         <v>0.25</v>
       </c>
       <c r="N97" t="n">
-        <v>10963</v>
+        <v>1267.25</v>
       </c>
       <c r="O97" t="n">
-        <v>11070.25</v>
+        <v>134.5</v>
       </c>
       <c r="P97" t="n">
-        <v>11991.875</v>
+        <v>1564.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>1267.25</v>
+        <v>8766.125</v>
       </c>
       <c r="R97" t="n">
-        <v>134.5</v>
+        <v>5734.25</v>
       </c>
       <c r="S97" t="n">
-        <v>1564.25</v>
+        <v>8185</v>
       </c>
       <c r="T97" t="n">
-        <v>8766.125</v>
+        <v>1546</v>
       </c>
       <c r="U97" t="n">
-        <v>5734.25</v>
+        <v>1894</v>
       </c>
       <c r="V97" t="n">
-        <v>8185</v>
+        <v>2833.25</v>
       </c>
       <c r="W97" t="n">
-        <v>1546</v>
+        <v>2426.625</v>
       </c>
       <c r="X97" t="n">
-        <v>1894</v>
+        <v>832.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>2833.25</v>
+        <v>2095.125</v>
       </c>
       <c r="Z97" t="n">
-        <v>2426.625</v>
+        <v>12277.125</v>
       </c>
       <c r="AA97" t="n">
-        <v>832.5</v>
+        <v>12446.625</v>
       </c>
       <c r="AB97" t="n">
-        <v>2095.125</v>
+        <v>12395.25</v>
       </c>
       <c r="AC97" t="n">
-        <v>12277.125</v>
+        <v>4690</v>
       </c>
       <c r="AD97" t="n">
-        <v>12446.625</v>
+        <v>2727.25</v>
       </c>
       <c r="AE97" t="n">
-        <v>12395.25</v>
+        <v>4830.125</v>
       </c>
       <c r="AF97" t="n">
-        <v>4690</v>
+        <v>6149.125</v>
       </c>
       <c r="AG97" t="n">
-        <v>2727.25</v>
+        <v>7870.875</v>
       </c>
       <c r="AH97" t="n">
-        <v>4830.125</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>6149.125</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>7870.875</v>
-      </c>
-      <c r="AK97" t="n">
         <v>6429.375</v>
       </c>
     </row>

--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 3-B.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 3-B.xlsx
@@ -17,6 +17,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
+    <t>CFBP2957 replicate 2</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 3</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 1</t>
+  </si>
+  <si>
     <t>BA7 replicate 1</t>
   </si>
   <si>
@@ -33,15 +42,6 @@
   </si>
   <si>
     <t>BDBR229 replicate 3</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 2</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 3</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 1</t>
   </si>
   <si>
     <t>GMI1000 replicate 1</t>
@@ -887,7 +887,9 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="s"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -966,30 +968,32 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
+        <v>5046.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4952.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4964.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>7418.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>7121.25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>6647</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>20.25</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>6.25</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5046.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4952.75</v>
-      </c>
-      <c r="J3" t="s"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="n">
         <v>7142</v>
       </c>
@@ -1068,30 +1072,32 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
+        <v>3447.375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3130.125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3272.875</v>
+      </c>
+      <c r="E4" t="n">
         <v>4986.125</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>4380.375</v>
       </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>4115.75</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>2.75</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3447.375</v>
-      </c>
       <c r="I4" t="n">
-        <v>3130.125</v>
-      </c>
-      <c r="J4" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="n">
         <v>5441</v>
       </c>
@@ -1170,30 +1176,32 @@
         <v>36</v>
       </c>
       <c r="B5" t="n">
+        <v>3429.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3343.5</v>
+      </c>
+      <c r="E5" t="n">
         <v>6394.25</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>5912.75</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>5332.125</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>11.25</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>919.125</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3429.75</v>
-      </c>
       <c r="I5" t="n">
-        <v>3071</v>
-      </c>
-      <c r="J5" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>922.5</v>
+      </c>
       <c r="K5" t="n">
         <v>6592.375</v>
       </c>
@@ -1272,30 +1280,32 @@
         <v>37</v>
       </c>
       <c r="B6" t="n">
+        <v>5435.375</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4866.625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5396.625</v>
+      </c>
+      <c r="E6" t="n">
         <v>7880.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>7873.25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>7050.5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>5435.375</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4866.625</v>
-      </c>
-      <c r="J6" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="n">
         <v>9865.125</v>
       </c>
@@ -1377,27 +1387,29 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>69.75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1476,30 +1488,32 @@
         <v>39</v>
       </c>
       <c r="B8" t="n">
+        <v>6398.375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6763.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6920.125</v>
+      </c>
+      <c r="E8" t="n">
         <v>10380.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>9400.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>9950</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>676.625</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>688.875</v>
       </c>
-      <c r="G8" t="n">
-        <v>1666.125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6398.375</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6763.5</v>
-      </c>
-      <c r="J8" t="s"/>
+      <c r="J8" t="n">
+        <v>1689.25</v>
+      </c>
       <c r="K8" t="n">
         <v>10208.5</v>
       </c>
@@ -1578,30 +1592,32 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
+        <v>1067.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>852.875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1255.875</v>
+      </c>
+      <c r="E9" t="n">
         <v>2459.125</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
         <v>2673</v>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>1924.875</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>38</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>104.125</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1067.5</v>
-      </c>
       <c r="I9" t="n">
-        <v>852.875</v>
-      </c>
-      <c r="J9" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>106</v>
+      </c>
       <c r="K9" t="n">
         <v>20.25</v>
       </c>
@@ -1680,30 +1696,32 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
+        <v>8134.375</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7535.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8288.125</v>
+      </c>
+      <c r="E10" t="n">
         <v>10981.375</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>10440.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>10409.625</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>3028.875</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>1850.75</v>
       </c>
-      <c r="G10" t="n">
-        <v>4912.625</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8134.375</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7535.5</v>
-      </c>
-      <c r="J10" t="s"/>
+      <c r="J10" t="n">
+        <v>4953.5</v>
+      </c>
       <c r="K10" t="n">
         <v>11060.375</v>
       </c>
@@ -1782,30 +1800,32 @@
         <v>42</v>
       </c>
       <c r="B11" t="n">
+        <v>8776.125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7616.625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8457.75</v>
+      </c>
+      <c r="E11" t="n">
         <v>10262.375</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>10499</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>10070.375</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>2549.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>1507.625</v>
       </c>
-      <c r="G11" t="n">
-        <v>3363.125</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8776.125</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7616.625</v>
-      </c>
-      <c r="J11" t="s"/>
+      <c r="J11" t="n">
+        <v>3394.25</v>
+      </c>
       <c r="K11" t="n">
         <v>11778.625</v>
       </c>
@@ -1884,30 +1904,32 @@
         <v>43</v>
       </c>
       <c r="B12" t="n">
+        <v>4339.375</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3843.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3422.75</v>
+      </c>
+      <c r="E12" t="n">
         <v>200.625</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>10.5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>343.25</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>133.125</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>4.25</v>
       </c>
-      <c r="G12" t="n">
-        <v>264.875</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4339.375</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3843.25</v>
-      </c>
-      <c r="J12" t="s"/>
+      <c r="J12" t="n">
+        <v>267.375</v>
+      </c>
       <c r="K12" t="n">
         <v>2164.125</v>
       </c>
@@ -1986,30 +2008,32 @@
         <v>44</v>
       </c>
       <c r="B13" t="n">
+        <v>8891.375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9148.125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9839.625</v>
+      </c>
+      <c r="E13" t="n">
         <v>11952.5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="n">
         <v>11807.75</v>
       </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>11394.125</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>4742</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>4550.625</v>
       </c>
-      <c r="G13" t="n">
-        <v>5273.875</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8891.375</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9148.125</v>
-      </c>
-      <c r="J13" t="s"/>
+      <c r="J13" t="n">
+        <v>5316.375</v>
+      </c>
       <c r="K13" t="n">
         <v>11297.625</v>
       </c>
@@ -2088,30 +2112,32 @@
         <v>45</v>
       </c>
       <c r="B14" t="n">
+        <v>8421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9251.75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9565.75</v>
+      </c>
+      <c r="E14" t="n">
         <v>11872.125</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>10820.125</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>11596.375</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>5548.375</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>4271.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>7235.375</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8421</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9251.75</v>
-      </c>
-      <c r="J14" t="s"/>
+      <c r="J14" t="n">
+        <v>7283.75</v>
+      </c>
       <c r="K14" t="n">
         <v>11960.875</v>
       </c>
@@ -2190,30 +2216,32 @@
         <v>46</v>
       </c>
       <c r="B15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>334.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>5609.375</v>
       </c>
-      <c r="C15" t="n">
+      <c r="F15" t="n">
         <v>5246.25</v>
       </c>
-      <c r="D15" t="n">
+      <c r="G15" t="n">
         <v>4894.125</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>0.5</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.5</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="s"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
         <v>5337.625</v>
       </c>
@@ -2292,30 +2320,32 @@
         <v>47</v>
       </c>
       <c r="B16" t="n">
+        <v>6235.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6900.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7401.375</v>
+      </c>
+      <c r="E16" t="n">
         <v>9060.25</v>
       </c>
-      <c r="C16" t="n">
+      <c r="F16" t="n">
         <v>8657.625</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
         <v>8856.375</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>784.75</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>902.875</v>
       </c>
-      <c r="G16" t="n">
-        <v>2041.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6235.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6900.5</v>
-      </c>
-      <c r="J16" t="s"/>
+      <c r="J16" t="n">
+        <v>2070</v>
+      </c>
       <c r="K16" t="n">
         <v>10034.375</v>
       </c>
@@ -2394,30 +2424,32 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>1338.5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
         <v>1600.5</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>984.875</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>18.25</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2496,30 +2528,32 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>325.875</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="n">
         <v>417</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>203.125</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s"/>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2655,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="s"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2703,17 +2739,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.5</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2723,7 +2759,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="s"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2802,30 +2840,32 @@
         <v>52</v>
       </c>
       <c r="B21" t="n">
+        <v>1808.75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>560.875</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E21" t="n">
         <v>6188.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="F21" t="n">
         <v>5816</v>
       </c>
-      <c r="D21" t="n">
+      <c r="G21" t="n">
         <v>6131.625</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>24.25</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.25</v>
       </c>
-      <c r="H21" t="n">
-        <v>1808.75</v>
-      </c>
-      <c r="I21" t="n">
-        <v>560.875</v>
-      </c>
-      <c r="J21" t="s"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2904,30 +2944,32 @@
         <v>53</v>
       </c>
       <c r="B22" t="n">
+        <v>5062.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4423.625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5363.75</v>
+      </c>
+      <c r="E22" t="n">
         <v>9024.25</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
         <v>8320.625</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>8561.125</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>14.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>4.875</v>
       </c>
-      <c r="G22" t="n">
-        <v>636.875</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5062.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4423.625</v>
-      </c>
-      <c r="J22" t="s"/>
+      <c r="J22" t="n">
+        <v>642.25</v>
+      </c>
       <c r="K22" t="n">
         <v>1777.875</v>
       </c>
@@ -3006,30 +3048,32 @@
         <v>54</v>
       </c>
       <c r="B23" t="n">
+        <v>1590.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2280.75</v>
+      </c>
+      <c r="E23" t="n">
         <v>4171.375</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="n">
         <v>2611.375</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>3122</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>175.25</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1590.5</v>
-      </c>
       <c r="I23" t="n">
-        <v>1710</v>
-      </c>
-      <c r="J23" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>129.25</v>
+      </c>
       <c r="K23" t="n">
         <v>7703</v>
       </c>
@@ -3108,30 +3152,32 @@
         <v>55</v>
       </c>
       <c r="B24" t="n">
+        <v>3238.875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3752.125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4188</v>
+      </c>
+      <c r="E24" t="n">
         <v>7992.875</v>
       </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
         <v>7054.25</v>
       </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>7336.125</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>145.875</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G24" t="n">
-        <v>61</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3238.875</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3752.125</v>
-      </c>
-      <c r="J24" t="s"/>
+      <c r="J24" t="n">
+        <v>61.375</v>
+      </c>
       <c r="K24" t="n">
         <v>6841.25</v>
       </c>
@@ -3210,30 +3256,32 @@
         <v>56</v>
       </c>
       <c r="B25" t="n">
+        <v>1202.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>454.625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1085.375</v>
+      </c>
+      <c r="E25" t="n">
         <v>6609.25</v>
       </c>
-      <c r="C25" t="n">
+      <c r="F25" t="n">
         <v>5288.25</v>
       </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>5356.125</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>306.5</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>41.75</v>
       </c>
-      <c r="G25" t="n">
-        <v>722.25</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1202.75</v>
-      </c>
-      <c r="I25" t="n">
-        <v>454.625</v>
-      </c>
-      <c r="J25" t="s"/>
+      <c r="J25" t="n">
+        <v>726</v>
+      </c>
       <c r="K25" t="n">
         <v>355.5</v>
       </c>
@@ -3312,30 +3360,32 @@
         <v>57</v>
       </c>
       <c r="B26" t="n">
+        <v>4198</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4313.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4868.625</v>
+      </c>
+      <c r="E26" t="n">
         <v>9484.625</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>7973.375</v>
       </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
         <v>8429.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>1414.25</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>157.875</v>
       </c>
-      <c r="G26" t="n">
-        <v>1520.375</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4198</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4313.5</v>
-      </c>
-      <c r="J26" t="s"/>
+      <c r="J26" t="n">
+        <v>1529.375</v>
+      </c>
       <c r="K26" t="n">
         <v>792.625</v>
       </c>
@@ -3414,30 +3464,32 @@
         <v>58</v>
       </c>
       <c r="B27" t="n">
+        <v>248.625</v>
+      </c>
+      <c r="C27" t="n">
+        <v>368.875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>511.5</v>
+      </c>
+      <c r="E27" t="n">
         <v>70.375</v>
       </c>
-      <c r="C27" t="n">
+      <c r="F27" t="n">
         <v>204.875</v>
       </c>
-      <c r="D27" t="n">
+      <c r="G27" t="n">
         <v>70.5</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
-        <v>248.625</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>368.875</v>
-      </c>
-      <c r="J27" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -3516,30 +3568,32 @@
         <v>59</v>
       </c>
       <c r="B28" t="n">
+        <v>6706.375</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6758.625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7286.75</v>
+      </c>
+      <c r="E28" t="n">
         <v>9467.5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="F28" t="n">
         <v>8479.75</v>
       </c>
-      <c r="D28" t="n">
+      <c r="G28" t="n">
         <v>9348</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>16</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>1.25</v>
       </c>
-      <c r="G28" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6706.375</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6758.625</v>
-      </c>
-      <c r="J28" t="s"/>
+      <c r="J28" t="n">
+        <v>18.75</v>
+      </c>
       <c r="K28" t="n">
         <v>8009</v>
       </c>
@@ -3618,30 +3672,32 @@
         <v>60</v>
       </c>
       <c r="B29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>3623.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>3385.25</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>3145.5</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="s"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
         <v>6363.5</v>
       </c>
@@ -3720,30 +3776,32 @@
         <v>61</v>
       </c>
       <c r="B30" t="n">
+        <v>4891.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4920.25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5372.625</v>
+      </c>
+      <c r="E30" t="n">
         <v>8814.25</v>
       </c>
-      <c r="C30" t="n">
+      <c r="F30" t="n">
         <v>8545.5</v>
       </c>
-      <c r="D30" t="n">
+      <c r="G30" t="n">
         <v>8746.625</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
-        <v>4891.5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4920.25</v>
-      </c>
-      <c r="J30" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
         <v>10438</v>
       </c>
@@ -3822,30 +3880,32 @@
         <v>62</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>6215.875</v>
       </c>
-      <c r="C31" t="n">
+      <c r="F31" t="n">
         <v>5754.75</v>
       </c>
-      <c r="D31" t="n">
+      <c r="G31" t="n">
         <v>5259.25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="s"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
         <v>4599.75</v>
       </c>
@@ -3947,7 +4007,9 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="s"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -4026,30 +4088,32 @@
         <v>64</v>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>342.625</v>
       </c>
-      <c r="C33" t="n">
+      <c r="F33" t="n">
         <v>0.75</v>
       </c>
-      <c r="D33" t="n">
+      <c r="G33" t="n">
         <v>139.625</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="s"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -4137,21 +4201,23 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>525.75</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>239.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="s"/>
+      <c r="J34" t="n">
+        <v>241.625</v>
+      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -4230,30 +4296,32 @@
         <v>66</v>
       </c>
       <c r="B35" t="n">
+        <v>5322.25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5581.375</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6252.875</v>
+      </c>
+      <c r="E35" t="n">
         <v>3848</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>4036.625</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>2878.25</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>16.5</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>180.25</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5322.25</v>
-      </c>
       <c r="I35" t="n">
-        <v>5581.375</v>
-      </c>
-      <c r="J35" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>187.125</v>
+      </c>
       <c r="K35" t="n">
         <v>8914.875</v>
       </c>
@@ -4335,27 +4403,29 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.25</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>43</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J36" t="s"/>
       <c r="K36" t="n">
         <v>1.75</v>
       </c>
@@ -4434,30 +4504,32 @@
         <v>68</v>
       </c>
       <c r="B37" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>103.375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>315.25</v>
+      </c>
+      <c r="E37" t="n">
         <v>1440.375</v>
       </c>
-      <c r="C37" t="n">
+      <c r="F37" t="n">
         <v>128.5</v>
       </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
         <v>948.875</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
         <v>640.875</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1415</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12.75</v>
-      </c>
       <c r="I37" t="n">
-        <v>103.375</v>
-      </c>
-      <c r="J37" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1421.375</v>
+      </c>
       <c r="K37" t="n">
         <v>134</v>
       </c>
@@ -4536,30 +4608,32 @@
         <v>69</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>32.125</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>326.875</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.25</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s"/>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -4638,30 +4712,32 @@
         <v>70</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>1.75</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.75</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>1.5</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="s"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4740,30 +4816,32 @@
         <v>71</v>
       </c>
       <c r="B40" t="n">
+        <v>1036.375</v>
+      </c>
+      <c r="C40" t="n">
+        <v>766.625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>998.625</v>
+      </c>
+      <c r="E40" t="n">
         <v>2975.375</v>
       </c>
-      <c r="C40" t="n">
+      <c r="F40" t="n">
         <v>3709.625</v>
       </c>
-      <c r="D40" t="n">
+      <c r="G40" t="n">
         <v>2762.125</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
-        <v>1036.375</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>766.625</v>
-      </c>
-      <c r="J40" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
         <v>5334.125</v>
       </c>
@@ -4851,21 +4929,23 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>229</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1231.875</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="s"/>
+      <c r="J41" t="n">
+        <v>1236.5</v>
+      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4967,7 +5047,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="s"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -5069,7 +5151,9 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="s"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -5148,17 +5232,17 @@
         <v>75</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -5171,7 +5255,9 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="s"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -5273,7 +5359,9 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="s"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
@@ -5375,7 +5463,9 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="s"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -5463,21 +5553,23 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>18.75</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>72.25</v>
       </c>
-      <c r="G47" t="n">
-        <v>905.75</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s"/>
+      <c r="J47" t="n">
+        <v>909.625</v>
+      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -5562,24 +5654,26 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>13</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>21.625</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
         <v>0.75</v>
       </c>
@@ -5658,30 +5752,32 @@
         <v>80</v>
       </c>
       <c r="B49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="E49" t="n">
         <v>90.375</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>706.625</v>
       </c>
-      <c r="E49" t="n">
+      <c r="H49" t="n">
         <v>351</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>354.5</v>
       </c>
-      <c r="G49" t="n">
-        <v>1656.875</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J49" t="s"/>
+      <c r="J49" t="n">
+        <v>1662.875</v>
+      </c>
       <c r="K49" t="n">
         <v>44.25</v>
       </c>
@@ -5760,30 +5856,32 @@
         <v>81</v>
       </c>
       <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E50" t="n">
         <v>5.5</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.5</v>
       </c>
-      <c r="E50" t="n">
+      <c r="H50" t="n">
         <v>94.625</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>5.75</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s"/>
       <c r="K50" t="n">
         <v>0.75</v>
       </c>
@@ -5871,21 +5969,23 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>55.75</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.25</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s"/>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -5987,7 +6087,9 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="s"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -6089,7 +6191,9 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="s"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -6174,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>737.375</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -6191,7 +6295,9 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="s"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -6270,30 +6376,32 @@
         <v>86</v>
       </c>
       <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>62</v>
       </c>
-      <c r="C55" t="n">
+      <c r="F55" t="n">
         <v>0.25</v>
       </c>
-      <c r="D55" t="n">
+      <c r="G55" t="n">
         <v>19.5</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="s"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
         <v>5.75</v>
       </c>
@@ -6381,21 +6489,23 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.25</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="s"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -6497,7 +6607,9 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="s"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
@@ -6576,30 +6688,32 @@
         <v>89</v>
       </c>
       <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>18.25</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.25</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="s"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -6678,30 +6792,32 @@
         <v>90</v>
       </c>
       <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>9.5</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>47</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>1.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s"/>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -6780,30 +6896,32 @@
         <v>91</v>
       </c>
       <c r="B60" t="n">
+        <v>248.25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>910.375</v>
+      </c>
+      <c r="E60" t="n">
         <v>2473.5</v>
       </c>
-      <c r="C60" t="n">
+      <c r="F60" t="n">
         <v>992.375</v>
       </c>
-      <c r="D60" t="n">
+      <c r="G60" t="n">
         <v>1451.125</v>
       </c>
-      <c r="E60" t="n">
+      <c r="H60" t="n">
         <v>4</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>355</v>
-      </c>
-      <c r="H60" t="n">
-        <v>248.25</v>
-      </c>
       <c r="I60" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="J60" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>357.375</v>
+      </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
@@ -6882,30 +7000,32 @@
         <v>92</v>
       </c>
       <c r="B61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="E61" t="n">
         <v>244.625</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>58.125</v>
       </c>
-      <c r="E61" t="n">
+      <c r="H61" t="n">
         <v>232.125</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>0.25</v>
       </c>
-      <c r="G61" t="n">
+      <c r="J61" t="n">
         <v>28</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J61" t="s"/>
       <c r="K61" t="n">
         <v>31</v>
       </c>
@@ -6984,30 +7104,32 @@
         <v>93</v>
       </c>
       <c r="B62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="E62" t="n">
         <v>11.75</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.75</v>
       </c>
-      <c r="E62" t="n">
+      <c r="H62" t="n">
         <v>15.75</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>367</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.25</v>
-      </c>
       <c r="I62" t="n">
-        <v>20.625</v>
-      </c>
-      <c r="J62" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>369.25</v>
+      </c>
       <c r="K62" t="n">
         <v>10.5</v>
       </c>
@@ -7086,30 +7208,32 @@
         <v>94</v>
       </c>
       <c r="B63" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C63" t="n">
+        <v>546</v>
+      </c>
+      <c r="D63" t="n">
+        <v>780.375</v>
+      </c>
+      <c r="E63" t="n">
         <v>3014.125</v>
       </c>
-      <c r="C63" t="n">
+      <c r="F63" t="n">
         <v>3452.75</v>
       </c>
-      <c r="D63" t="n">
+      <c r="G63" t="n">
         <v>4929.25</v>
       </c>
-      <c r="E63" t="n">
+      <c r="H63" t="n">
         <v>95.25</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.25</v>
       </c>
-      <c r="H63" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="I63" t="n">
-        <v>546</v>
-      </c>
-      <c r="J63" t="s"/>
       <c r="K63" t="n">
         <v>4444.375</v>
       </c>
@@ -7197,21 +7321,23 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>6</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="s"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -7299,21 +7425,23 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.25</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="s"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
@@ -7392,30 +7520,32 @@
         <v>97</v>
       </c>
       <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="s"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
@@ -7494,30 +7624,32 @@
         <v>98</v>
       </c>
       <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E67" t="n">
         <v>805.125</v>
       </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>211.125</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>32.5</v>
       </c>
-      <c r="G67" t="n">
-        <v>6056.375</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J67" t="s"/>
+      <c r="J67" t="n">
+        <v>6076.75</v>
+      </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -7596,30 +7728,32 @@
         <v>99</v>
       </c>
       <c r="B68" t="n">
+        <v>42.125</v>
+      </c>
+      <c r="C68" t="n">
+        <v>179.25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="E68" t="n">
         <v>1486.5</v>
       </c>
-      <c r="C68" t="n">
+      <c r="F68" t="n">
         <v>1637.125</v>
       </c>
-      <c r="D68" t="n">
+      <c r="G68" t="n">
         <v>1196.625</v>
       </c>
-      <c r="E68" t="n">
+      <c r="H68" t="n">
         <v>4146.625</v>
       </c>
-      <c r="F68" t="n">
+      <c r="I68" t="n">
         <v>2218.875</v>
       </c>
-      <c r="G68" t="n">
-        <v>4966.25</v>
-      </c>
-      <c r="H68" t="n">
-        <v>42.125</v>
-      </c>
-      <c r="I68" t="n">
-        <v>179.25</v>
-      </c>
-      <c r="J68" t="s"/>
+      <c r="J68" t="n">
+        <v>4981.875</v>
+      </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
@@ -7701,27 +7835,29 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>837.375</v>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J69" t="s"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
@@ -7800,30 +7936,32 @@
         <v>101</v>
       </c>
       <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.25</v>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>8</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>107.25</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="s"/>
+      <c r="J70" t="n">
+        <v>107.875</v>
+      </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
@@ -7902,30 +8040,32 @@
         <v>102</v>
       </c>
       <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E71" t="n">
         <v>2</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>879.25</v>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>1.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s"/>
       <c r="K71" t="n">
         <v>0.75</v>
       </c>
@@ -8004,30 +8144,32 @@
         <v>103</v>
       </c>
       <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E72" t="n">
         <v>31</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.25</v>
       </c>
-      <c r="E72" t="n">
+      <c r="H72" t="n">
         <v>78.375</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>5.5</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s"/>
       <c r="K72" t="n">
         <v>0</v>
       </c>
@@ -8106,30 +8248,32 @@
         <v>104</v>
       </c>
       <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>54</v>
+      </c>
+      <c r="E73" t="n">
         <v>3484</v>
       </c>
-      <c r="C73" t="n">
+      <c r="F73" t="n">
         <v>2968.125</v>
       </c>
-      <c r="D73" t="n">
+      <c r="G73" t="n">
         <v>3020.125</v>
       </c>
-      <c r="E73" t="n">
+      <c r="H73" t="n">
         <v>159.375</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>59.125</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s"/>
       <c r="K73" t="n">
         <v>1744.375</v>
       </c>
@@ -8208,30 +8352,32 @@
         <v>105</v>
       </c>
       <c r="B74" t="n">
+        <v>735.25</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3262.25</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3140</v>
+      </c>
+      <c r="E74" t="n">
         <v>7579.125</v>
       </c>
-      <c r="C74" t="n">
+      <c r="F74" t="n">
         <v>7921.125</v>
       </c>
-      <c r="D74" t="n">
+      <c r="G74" t="n">
         <v>7745.375</v>
       </c>
-      <c r="E74" t="n">
+      <c r="H74" t="n">
         <v>379.375</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>23</v>
       </c>
-      <c r="G74" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="H74" t="n">
-        <v>735.25</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3262.25</v>
-      </c>
-      <c r="J74" t="s"/>
+      <c r="J74" t="n">
+        <v>46.625</v>
+      </c>
       <c r="K74" t="n">
         <v>8546.875</v>
       </c>
@@ -8310,30 +8456,32 @@
         <v>106</v>
       </c>
       <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E75" t="n">
         <v>8.625</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>1.875</v>
       </c>
-      <c r="E75" t="n">
+      <c r="H75" t="n">
         <v>33.25</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>4</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J75" t="s"/>
       <c r="K75" t="n">
         <v>598.875</v>
       </c>
@@ -8412,30 +8560,32 @@
         <v>107</v>
       </c>
       <c r="B76" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="C76" t="n">
+        <v>147.125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="E76" t="n">
         <v>1507.5</v>
       </c>
-      <c r="C76" t="n">
+      <c r="F76" t="n">
         <v>2304</v>
       </c>
-      <c r="D76" t="n">
+      <c r="G76" t="n">
         <v>1369.25</v>
       </c>
-      <c r="E76" t="n">
+      <c r="H76" t="n">
         <v>1098.5</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>29.875</v>
       </c>
-      <c r="G76" t="n">
+      <c r="J76" t="n">
         <v>151.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>116.25</v>
-      </c>
-      <c r="I76" t="n">
-        <v>147.125</v>
-      </c>
-      <c r="J76" t="s"/>
       <c r="K76" t="n">
         <v>1352.875</v>
       </c>
@@ -8514,30 +8664,32 @@
         <v>108</v>
       </c>
       <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="n">
         <v>5.125</v>
       </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.375</v>
       </c>
-      <c r="E77" t="n">
+      <c r="H77" t="n">
         <v>38.5</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="s"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -8616,30 +8768,32 @@
         <v>109</v>
       </c>
       <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E78" t="n">
         <v>3426.625</v>
       </c>
-      <c r="C78" t="n">
+      <c r="F78" t="n">
         <v>2280.375</v>
       </c>
-      <c r="D78" t="n">
+      <c r="G78" t="n">
         <v>3605</v>
       </c>
-      <c r="E78" t="n">
+      <c r="H78" t="n">
         <v>20</v>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>17</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s"/>
       <c r="K78" t="n">
         <v>16.75</v>
       </c>
@@ -8718,30 +8872,32 @@
         <v>110</v>
       </c>
       <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
         <v>4660</v>
       </c>
-      <c r="C79" t="n">
+      <c r="F79" t="n">
         <v>3951.25</v>
       </c>
-      <c r="D79" t="n">
+      <c r="G79" t="n">
         <v>4331.875</v>
       </c>
-      <c r="E79" t="n">
+      <c r="H79" t="n">
         <v>3.5</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="J79" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -8820,30 +8976,32 @@
         <v>111</v>
       </c>
       <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.5</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.75</v>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="s"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
@@ -8922,30 +9080,32 @@
         <v>112</v>
       </c>
       <c r="B81" t="n">
+        <v>6211.875</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6452.25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6734.125</v>
+      </c>
+      <c r="E81" t="n">
         <v>2790.625</v>
       </c>
-      <c r="C81" t="n">
+      <c r="F81" t="n">
         <v>3025.75</v>
       </c>
-      <c r="D81" t="n">
+      <c r="G81" t="n">
         <v>2737.75</v>
       </c>
-      <c r="E81" t="n">
+      <c r="H81" t="n">
         <v>63.5</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6211.875</v>
-      </c>
       <c r="I81" t="n">
-        <v>6452.25</v>
-      </c>
-      <c r="J81" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
         <v>8605.5</v>
       </c>
@@ -9024,30 +9184,32 @@
         <v>113</v>
       </c>
       <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>1.25</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>252.25</v>
       </c>
-      <c r="E82" t="n">
+      <c r="H82" t="n">
         <v>7.375</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>4.75</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s"/>
       <c r="K82" t="n">
         <v>0.25</v>
       </c>
@@ -9126,30 +9288,32 @@
         <v>114</v>
       </c>
       <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E83" t="n">
         <v>631.125</v>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>448.625</v>
       </c>
-      <c r="E83" t="n">
+      <c r="H83" t="n">
         <v>249</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>51.75</v>
       </c>
-      <c r="G83" t="n">
+      <c r="J83" t="n">
         <v>284.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="J83" t="s"/>
       <c r="K83" t="n">
         <v>156.5</v>
       </c>
@@ -9228,30 +9392,32 @@
         <v>115</v>
       </c>
       <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E84" t="n">
         <v>61.75</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>71.5</v>
       </c>
-      <c r="E84" t="n">
+      <c r="H84" t="n">
         <v>372.75</v>
       </c>
-      <c r="F84" t="n">
+      <c r="I84" t="n">
         <v>12.75</v>
       </c>
-      <c r="G84" t="n">
-        <v>328.375</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s"/>
+      <c r="J84" t="n">
+        <v>329.5</v>
+      </c>
       <c r="K84" t="n">
         <v>4.75</v>
       </c>
@@ -9330,30 +9496,32 @@
         <v>116</v>
       </c>
       <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.625</v>
+      </c>
+      <c r="D85" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="E85" t="n">
         <v>762.25</v>
       </c>
-      <c r="C85" t="n">
+      <c r="F85" t="n">
         <v>8.5</v>
       </c>
-      <c r="D85" t="n">
+      <c r="G85" t="n">
         <v>450.125</v>
       </c>
-      <c r="E85" t="n">
+      <c r="H85" t="n">
         <v>1272.75</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>0.75</v>
       </c>
-      <c r="G85" t="n">
-        <v>976.375</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7.625</v>
-      </c>
-      <c r="J85" t="s"/>
+      <c r="J85" t="n">
+        <v>980.625</v>
+      </c>
       <c r="K85" t="n">
         <v>50.75</v>
       </c>
@@ -9432,30 +9600,32 @@
         <v>117</v>
       </c>
       <c r="B86" t="n">
+        <v>1945.25</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2105.375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2763.625</v>
+      </c>
+      <c r="E86" t="n">
         <v>130</v>
       </c>
-      <c r="C86" t="n">
+      <c r="F86" t="n">
         <v>18</v>
       </c>
-      <c r="D86" t="n">
+      <c r="G86" t="n">
         <v>173.875</v>
       </c>
-      <c r="E86" t="n">
+      <c r="H86" t="n">
         <v>641.125</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>3.375</v>
       </c>
-      <c r="G86" t="n">
-        <v>580.625</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1945.25</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2105.375</v>
-      </c>
-      <c r="J86" t="s"/>
+      <c r="J86" t="n">
+        <v>582.5</v>
+      </c>
       <c r="K86" t="n">
         <v>208.5</v>
       </c>
@@ -9534,30 +9704,32 @@
         <v>118</v>
       </c>
       <c r="B87" t="n">
+        <v>5235.625</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5796.625</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6498.5</v>
+      </c>
+      <c r="E87" t="n">
         <v>4839.75</v>
       </c>
-      <c r="C87" t="n">
+      <c r="F87" t="n">
         <v>3740.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="G87" t="n">
         <v>4397.75</v>
       </c>
-      <c r="E87" t="n">
+      <c r="H87" t="n">
         <v>797.875</v>
       </c>
-      <c r="F87" t="n">
+      <c r="I87" t="n">
         <v>453.125</v>
       </c>
-      <c r="G87" t="n">
-        <v>355.875</v>
-      </c>
-      <c r="H87" t="n">
-        <v>5235.625</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5796.625</v>
-      </c>
-      <c r="J87" t="s"/>
+      <c r="J87" t="n">
+        <v>363.125</v>
+      </c>
       <c r="K87" t="n">
         <v>173.75</v>
       </c>
@@ -9636,30 +9808,32 @@
         <v>119</v>
       </c>
       <c r="B88" t="n">
+        <v>3025.375</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3442.375</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3788.375</v>
+      </c>
+      <c r="E88" t="n">
         <v>2446.625</v>
       </c>
-      <c r="C88" t="n">
+      <c r="F88" t="n">
         <v>2185.875</v>
       </c>
-      <c r="D88" t="n">
+      <c r="G88" t="n">
         <v>1272.75</v>
       </c>
-      <c r="E88" t="n">
+      <c r="H88" t="n">
         <v>1013.875</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>2694.625</v>
       </c>
-      <c r="G88" t="n">
-        <v>1642.875</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3025.375</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3442.375</v>
-      </c>
-      <c r="J88" t="s"/>
+      <c r="J88" t="n">
+        <v>1675</v>
+      </c>
       <c r="K88" t="n">
         <v>20.5</v>
       </c>
@@ -9738,30 +9912,32 @@
         <v>120</v>
       </c>
       <c r="B89" t="n">
+        <v>4217.125</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3834.75</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4607.375</v>
+      </c>
+      <c r="E89" t="n">
         <v>20.375</v>
       </c>
-      <c r="C89" t="n">
+      <c r="F89" t="n">
         <v>13.75</v>
       </c>
-      <c r="D89" t="n">
+      <c r="G89" t="n">
         <v>25.375</v>
       </c>
-      <c r="E89" t="n">
+      <c r="H89" t="n">
         <v>461.625</v>
       </c>
-      <c r="F89" t="n">
+      <c r="I89" t="n">
         <v>177.75</v>
       </c>
-      <c r="G89" t="n">
-        <v>149.875</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4217.125</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3834.75</v>
-      </c>
-      <c r="J89" t="s"/>
+      <c r="J89" t="n">
+        <v>153.5</v>
+      </c>
       <c r="K89" t="n">
         <v>120.75</v>
       </c>
@@ -9840,30 +10016,32 @@
         <v>121</v>
       </c>
       <c r="B90" t="n">
+        <v>5806.875</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6025.25</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6767.375</v>
+      </c>
+      <c r="E90" t="n">
         <v>8164.875</v>
       </c>
-      <c r="C90" t="n">
+      <c r="F90" t="n">
         <v>6525.75</v>
       </c>
-      <c r="D90" t="n">
+      <c r="G90" t="n">
         <v>6971.375</v>
       </c>
-      <c r="E90" t="n">
+      <c r="H90" t="n">
         <v>405.125</v>
       </c>
-      <c r="F90" t="n">
+      <c r="I90" t="n">
         <v>8.25</v>
       </c>
-      <c r="G90" t="n">
-        <v>180.375</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5806.875</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6025.25</v>
-      </c>
-      <c r="J90" t="s"/>
+      <c r="J90" t="n">
+        <v>183.375</v>
+      </c>
       <c r="K90" t="n">
         <v>16.5</v>
       </c>
@@ -9942,30 +10120,32 @@
         <v>122</v>
       </c>
       <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>78</v>
+      </c>
+      <c r="D91" t="n">
+        <v>348</v>
+      </c>
+      <c r="E91" t="n">
         <v>3423.375</v>
       </c>
-      <c r="C91" t="n">
+      <c r="F91" t="n">
         <v>1778.625</v>
       </c>
-      <c r="D91" t="n">
+      <c r="G91" t="n">
         <v>3352.625</v>
       </c>
-      <c r="E91" t="n">
+      <c r="H91" t="n">
         <v>281.5</v>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>3.25</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s"/>
       <c r="K91" t="n">
         <v>34.75</v>
       </c>
@@ -10044,30 +10224,32 @@
         <v>123</v>
       </c>
       <c r="B92" t="n">
+        <v>922</v>
+      </c>
+      <c r="C92" t="n">
+        <v>685.25</v>
+      </c>
+      <c r="D92" t="n">
+        <v>931.625</v>
+      </c>
+      <c r="E92" t="n">
         <v>303.625</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>395.75</v>
       </c>
-      <c r="E92" t="n">
+      <c r="H92" t="n">
         <v>180.625</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>147.375</v>
-      </c>
-      <c r="H92" t="n">
-        <v>922</v>
-      </c>
       <c r="I92" t="n">
-        <v>685.25</v>
-      </c>
-      <c r="J92" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>148</v>
+      </c>
       <c r="K92" t="n">
         <v>3.75</v>
       </c>
@@ -10146,30 +10328,32 @@
         <v>124</v>
       </c>
       <c r="B93" t="n">
+        <v>3982.875</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3616.875</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4692.25</v>
+      </c>
+      <c r="E93" t="n">
         <v>817.875</v>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>800.5</v>
       </c>
-      <c r="E93" t="n">
+      <c r="H93" t="n">
         <v>238.375</v>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>135.875</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3982.875</v>
-      </c>
       <c r="I93" t="n">
-        <v>3616.875</v>
-      </c>
-      <c r="J93" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>136.375</v>
+      </c>
       <c r="K93" t="n">
         <v>8.75</v>
       </c>
@@ -10248,30 +10432,32 @@
         <v>125</v>
       </c>
       <c r="B94" t="n">
+        <v>6569.125</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6676</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7595.75</v>
+      </c>
+      <c r="E94" t="n">
         <v>6985.25</v>
       </c>
-      <c r="C94" t="n">
+      <c r="F94" t="n">
         <v>5260.25</v>
       </c>
-      <c r="D94" t="n">
+      <c r="G94" t="n">
         <v>6950.375</v>
       </c>
-      <c r="E94" t="n">
+      <c r="H94" t="n">
         <v>527.125</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>0.125</v>
       </c>
-      <c r="G94" t="n">
-        <v>588</v>
-      </c>
-      <c r="H94" t="n">
-        <v>6569.125</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6676</v>
-      </c>
-      <c r="J94" t="s"/>
+      <c r="J94" t="n">
+        <v>589.125</v>
+      </c>
       <c r="K94" t="n">
         <v>80.25</v>
       </c>
@@ -10350,30 +10536,32 @@
         <v>126</v>
       </c>
       <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="D95" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="E95" t="n">
         <v>249.125</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>400</v>
       </c>
-      <c r="E95" t="n">
+      <c r="H95" t="n">
         <v>279.625</v>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>142.375</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.125</v>
-      </c>
-      <c r="J95" t="s"/>
       <c r="K95" t="n">
         <v>36.25</v>
       </c>
@@ -10452,30 +10640,32 @@
         <v>127</v>
       </c>
       <c r="B96" t="n">
+        <v>2554.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2707.625</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3754.375</v>
+      </c>
+      <c r="E96" t="n">
         <v>7086.625</v>
       </c>
-      <c r="C96" t="n">
+      <c r="F96" t="n">
         <v>5242.5</v>
       </c>
-      <c r="D96" t="n">
+      <c r="G96" t="n">
         <v>6412.25</v>
       </c>
-      <c r="E96" t="n">
+      <c r="H96" t="n">
         <v>678.75</v>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1299.875</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2554.5</v>
-      </c>
       <c r="I96" t="n">
-        <v>2707.625</v>
-      </c>
-      <c r="J96" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1304.25</v>
+      </c>
       <c r="K96" t="n">
         <v>136</v>
       </c>
@@ -10554,30 +10744,32 @@
         <v>128</v>
       </c>
       <c r="B97" t="n">
+        <v>6501.125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6863.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7742.375</v>
+      </c>
+      <c r="E97" t="n">
         <v>9456.375</v>
       </c>
-      <c r="C97" t="n">
+      <c r="F97" t="n">
         <v>6654.625</v>
       </c>
-      <c r="D97" t="n">
+      <c r="G97" t="n">
         <v>7762.375</v>
       </c>
-      <c r="E97" t="n">
+      <c r="H97" t="n">
         <v>1479</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>59.375</v>
       </c>
-      <c r="G97" t="n">
-        <v>859</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6501.125</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6863.5</v>
-      </c>
-      <c r="J97" t="s"/>
+      <c r="J97" t="n">
+        <v>863.25</v>
+      </c>
       <c r="K97" t="n">
         <v>1000.625</v>
       </c>
